--- a/Summary/output_summary.xlsx
+++ b/Summary/output_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Desktop\GitHub\demo_for_ccgb\Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2137F9-F79D-4F5D-B660-37CF6C44E298}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1523884D-CAA8-4906-A0E3-82C4D308FAB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="2016" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{9F4B9699-7361-44C9-88F2-01D9ADA6A85E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{9F4B9699-7361-44C9-88F2-01D9ADA6A85E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="28">
   <si>
     <t>theta</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>b_massiliensis</t>
+  </si>
+  <si>
+    <t>LL</t>
   </si>
 </sst>
 </file>
@@ -1288,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A941B0-2F65-4D9C-86F5-1774512E76E7}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,584 +1341,584 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B3">
-        <v>2511.2605348100001</v>
+        <v>-208.17059266300001</v>
       </c>
       <c r="C3">
-        <v>2415.25855658</v>
+        <v>-223.576366468</v>
       </c>
       <c r="D3">
-        <v>2961.0496956100001</v>
+        <v>-1722.5465346799999</v>
       </c>
       <c r="E3">
-        <v>2245.3271439599998</v>
+        <v>-398.504467277</v>
       </c>
       <c r="F3">
-        <v>11538.0869002</v>
+        <v>-853.427262767</v>
       </c>
       <c r="G3">
-        <v>10273.129271100001</v>
+        <v>-1823.5852384</v>
       </c>
       <c r="H3">
-        <v>2933.3160406000002</v>
+        <v>-84.427743076799999</v>
       </c>
       <c r="I3">
-        <v>4404.7177118400004</v>
+        <v>-897.49177724200001</v>
       </c>
       <c r="J3">
-        <v>3906.09965379</v>
+        <v>-128.16273383199999</v>
       </c>
       <c r="K3">
-        <v>339.77711082799999</v>
+        <v>-198.75432955900001</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5.1660853099999997</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5.0686627599999999E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5.1193328100000004</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4.8966717400000004</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.6325430599999999</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2.6603219</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5.36526908</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2.2637418299999998</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3.39036114</v>
-      </c>
-      <c r="K4" s="1">
-        <v>4.4308280399999997</v>
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>2511.2605348100001</v>
+      </c>
+      <c r="C4">
+        <v>2415.25855658</v>
+      </c>
+      <c r="D4">
+        <v>2961.0496956100001</v>
+      </c>
+      <c r="E4">
+        <v>2245.3271439599998</v>
+      </c>
+      <c r="F4">
+        <v>11538.0869002</v>
+      </c>
+      <c r="G4">
+        <v>10273.129271100001</v>
+      </c>
+      <c r="H4">
+        <v>2933.3160406000002</v>
+      </c>
+      <c r="I4">
+        <v>4404.7177118400004</v>
+      </c>
+      <c r="J4">
+        <v>3906.09965379</v>
+      </c>
+      <c r="K4">
+        <v>339.77711082799999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.1660853099999997</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.0686627599999999E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.1193328100000004</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.8966717400000004</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.6325430599999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.6603219</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5.36526908</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.2637418299999998</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3.39036114</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4.4308280399999997</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2.3674562200000002E-6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>7.6449899199999995E-6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3.2509883800000001E-6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.9930798700000001E-6</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5.3618714099999999E-7</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1.72381963E-6</v>
-      </c>
-      <c r="H6" s="1">
-        <v>5.8232823100000002E-6</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1.37011541E-6</v>
-      </c>
-      <c r="J6" s="1">
-        <v>3.7225683400000001E-6</v>
-      </c>
-      <c r="K6" s="1">
-        <v>5.9646454800000003E-6</v>
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.3674562200000002E-6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7.6449899199999995E-6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.2509883800000001E-6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.9930798700000001E-6</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.3618714099999999E-7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.72381963E-6</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5.8232823100000002E-6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.37011541E-6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3.7225683400000001E-6</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5.9646454800000003E-6</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <f>B3/4/0.000000001</f>
+      <c r="B9">
+        <f>B4/4/0.000000001</f>
         <v>627815133702.5</v>
       </c>
-      <c r="C8">
-        <f t="shared" ref="C8:K8" si="0">C3/4*1000000000</f>
+      <c r="C9">
+        <f t="shared" ref="C9:K9" si="0">C4/4*1000000000</f>
         <v>603814639145</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>740262423902.5</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>561331785990</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>2884521725050</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <f t="shared" si="0"/>
         <v>2568282317775</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>733329010150</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <f t="shared" si="0"/>
         <v>1101179427960</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>976524913447.5</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <f t="shared" si="0"/>
         <v>84944277707</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <f>B8/B4</f>
+      <c r="B10">
+        <f>B9/B5</f>
         <v>121526280738.57729</v>
       </c>
-      <c r="C9">
-        <f t="shared" ref="C9:K9" si="1">C8/C4</f>
+      <c r="C10">
+        <f t="shared" ref="C10:K10" si="1">C9/C5</f>
         <v>11912700996998.27</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <f t="shared" si="1"/>
         <v>144601347749.16107</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>114635371900.58812</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>1766888602037.8538</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>965402840075.48108</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <f t="shared" si="1"/>
         <v>136680751555.14847</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <f t="shared" si="1"/>
         <v>486442143431.17035</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <f t="shared" si="1"/>
         <v>288029762353.72375</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>19171197108.114357</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <f>2*B6*B9</f>
+      <c r="B11">
+        <f>2*B7*B10</f>
         <v>575416.29845602205</v>
       </c>
-      <c r="C10">
-        <f t="shared" ref="C10:K10" si="2">2*C6*C9</f>
+      <c r="C11">
+        <f t="shared" ref="C11:K11" si="2">2*C7*C10</f>
         <v>182144958.08405143</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <f t="shared" si="2"/>
         <v>940194.60252972366</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <f t="shared" si="2"/>
         <v>456954.90425005165</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <f t="shared" si="2"/>
         <v>1894765.8959843272</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <f t="shared" si="2"/>
         <v>3328360.7331597297</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <f t="shared" si="2"/>
         <v>1591861.2052972021</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <f t="shared" si="2"/>
         <v>1332963.7535769537</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <f t="shared" si="2"/>
         <v>2144420.9486313919</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <f t="shared" si="2"/>
         <v>228698.78835420674</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="e">
-        <f>2*B7*B9</f>
+      <c r="B12" t="e">
+        <f>2*B8*B10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C11" t="e">
-        <f t="shared" ref="C11:K11" si="3">2*C7*C9</f>
+      <c r="C12" t="e">
+        <f t="shared" ref="C12:K12" si="3">2*C8*C10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D11" t="e">
+      <c r="D12" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E11" t="e">
+      <c r="E12" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F11" t="e">
+      <c r="F12" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G11" t="e">
+      <c r="G12" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H11" t="e">
+      <c r="H12" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I11" t="e">
+      <c r="I12" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J11" t="e">
+      <c r="J12" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" t="e">
+      <c r="K12" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B12">
-        <f>B10/3650</f>
+      <c r="B13">
+        <f>B11/3650</f>
         <v>157.64830094685536</v>
       </c>
-      <c r="C12" s="2">
-        <f t="shared" ref="C12:K12" si="4">C10/3650</f>
+      <c r="C13" s="2">
+        <f t="shared" ref="C13:K13" si="4">C11/3650</f>
         <v>49902.728242205871</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <f t="shared" si="4"/>
         <v>257.58756233691059</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <f t="shared" si="4"/>
         <v>125.19312445206894</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <f t="shared" si="4"/>
         <v>519.1139441052951</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <f t="shared" si="4"/>
         <v>911.87965292047386</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <f t="shared" si="4"/>
         <v>436.12635761567179</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <f t="shared" si="4"/>
         <v>365.19554892519278</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <f t="shared" si="4"/>
         <v>587.51258866613477</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <f t="shared" si="4"/>
         <v>62.657202288823768</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>3</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>4</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>5</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>20</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>21</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I16" t="s">
         <v>22</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J16" t="s">
         <v>23</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K16" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>2511.2512867</v>
-      </c>
-      <c r="C16">
-        <v>2415.2446716999998</v>
-      </c>
-      <c r="D16">
-        <v>2961.05778586</v>
-      </c>
-      <c r="E16">
-        <v>2245.3407214099998</v>
-      </c>
-      <c r="F16">
-        <v>11538.0213712</v>
-      </c>
-      <c r="G16">
-        <v>10273.145356499999</v>
-      </c>
-      <c r="H16">
-        <v>2933.3201732799998</v>
-      </c>
-      <c r="I16">
-        <v>4404.7206800399999</v>
-      </c>
-      <c r="J16">
-        <v>3906.1010724100001</v>
-      </c>
-      <c r="K16">
-        <v>339.77725535500002</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1">
-        <v>4.0965001499999998</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4.2200407899999997</v>
-      </c>
-      <c r="D17" s="1">
-        <v>5.3278657300000001</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2.1921599199999999</v>
-      </c>
-      <c r="F17" s="1">
-        <v>4.6268936299999996</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1.6305970400000001</v>
-      </c>
-      <c r="H17" s="1">
-        <v>4.46379693</v>
-      </c>
-      <c r="I17" s="1">
-        <v>3.3210513499999998</v>
-      </c>
-      <c r="J17" s="1">
-        <v>4.2788662100000003</v>
-      </c>
-      <c r="K17" s="1">
-        <v>4.3275947600000002</v>
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>-208.16257295700001</v>
+      </c>
+      <c r="C17">
+        <v>-223.566950386</v>
+      </c>
+      <c r="D17">
+        <v>-1722.56029913</v>
+      </c>
+      <c r="E17">
+        <v>-398.52589105700002</v>
+      </c>
+      <c r="F17">
+        <v>-853.37186158400004</v>
+      </c>
+      <c r="G17">
+        <v>-1823.60758717</v>
+      </c>
+      <c r="H17">
+        <v>-84.428036166699997</v>
+      </c>
+      <c r="I17">
+        <v>-897.49864572199999</v>
+      </c>
+      <c r="J17">
+        <v>-128.163159689</v>
+      </c>
+      <c r="K17">
+        <v>-198.75459269500001</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>2511.2512867</v>
+      </c>
+      <c r="C18">
+        <v>2415.2446716999998</v>
+      </c>
+      <c r="D18">
+        <v>2961.05778586</v>
+      </c>
+      <c r="E18">
+        <v>2245.3407214099998</v>
+      </c>
+      <c r="F18">
+        <v>11538.0213712</v>
+      </c>
+      <c r="G18">
+        <v>10273.145356499999</v>
+      </c>
+      <c r="H18">
+        <v>2933.3201732799998</v>
+      </c>
+      <c r="I18">
+        <v>4404.7206800399999</v>
+      </c>
+      <c r="J18">
+        <v>3906.1010724100001</v>
+      </c>
+      <c r="K18">
+        <v>339.77725535500002</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1">
-        <v>3.3525662900000002E-6</v>
+        <v>4.0965001499999998</v>
       </c>
       <c r="C19" s="1">
-        <v>2.8773487200000001E-6</v>
+        <v>4.2200407899999997</v>
       </c>
       <c r="D19" s="1">
-        <v>2.42838887E-6</v>
+        <v>5.3278657300000001</v>
       </c>
       <c r="E19" s="1">
-        <v>1.48526959E-6</v>
+        <v>2.1921599199999999</v>
       </c>
       <c r="F19" s="1">
-        <v>1.2831586E-6</v>
+        <v>4.6268936299999996</v>
       </c>
       <c r="G19" s="1">
-        <v>1.0244246E-6</v>
+        <v>1.6305970400000001</v>
       </c>
       <c r="H19" s="1">
-        <v>5.6433373199999997E-6</v>
+        <v>4.46379693</v>
       </c>
       <c r="I19" s="1">
-        <v>9.5389747299999992E-7</v>
+        <v>3.3210513499999998</v>
       </c>
       <c r="J19" s="1">
-        <v>3.1537499500000001E-6</v>
+        <v>4.2788662100000003</v>
       </c>
       <c r="K19" s="1">
-        <v>5.6681142200000003E-6</v>
+        <v>4.3275947600000002</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -1950,1100 +1953,1240 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3.3525662900000002E-6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.8773487200000001E-6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.42838887E-6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.48526959E-6</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.2831586E-6</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.0244246E-6</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5.6433373199999997E-6</v>
+      </c>
+      <c r="I21" s="1">
+        <v>9.5389747299999992E-7</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3.1537499500000001E-6</v>
+      </c>
+      <c r="K21" s="1">
+        <v>5.6681142200000003E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B21">
-        <f>B16/4*1000000000</f>
+      <c r="B23">
+        <f>B18/4*1000000000</f>
         <v>627812821675</v>
       </c>
-      <c r="C21">
-        <f t="shared" ref="C21:K21" si="5">C16/4*1000000000</f>
+      <c r="C23">
+        <f t="shared" ref="C23:K23" si="5">C18/4*1000000000</f>
         <v>603811167925</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <f t="shared" si="5"/>
         <v>740264446465</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <f t="shared" si="5"/>
         <v>561335180352.5</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <f t="shared" si="5"/>
         <v>2884505342800</v>
       </c>
-      <c r="G21">
+      <c r="G23">
         <f t="shared" si="5"/>
         <v>2568286339125</v>
       </c>
-      <c r="H21">
+      <c r="H23">
         <f t="shared" si="5"/>
         <v>733330043320</v>
       </c>
-      <c r="I21">
+      <c r="I23">
         <f t="shared" si="5"/>
         <v>1101180170010</v>
       </c>
-      <c r="J21">
+      <c r="J23">
         <f t="shared" si="5"/>
         <v>976525268102.5</v>
       </c>
-      <c r="K21">
+      <c r="K23">
         <f t="shared" si="5"/>
         <v>84944313838.75</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <f>B21/B17</f>
-        <v>153255901058.61465</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ref="C22" si="6">C21/C17</f>
-        <v>143081832136.74579</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ref="D22" si="7">D21/D17</f>
-        <v>138942023688.16077</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ref="E22" si="8">E21/E17</f>
-        <v>256064886156.89133</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ref="F22" si="9">F21/F17</f>
-        <v>623421581187.29004</v>
-      </c>
-      <c r="G22">
-        <f>G21/G17</f>
-        <v>1575058874830.9023</v>
-      </c>
-      <c r="H22">
-        <f>H21/H17</f>
-        <v>164283916768.58832</v>
-      </c>
-      <c r="I22">
-        <f t="shared" ref="I22" si="10">I21/I17</f>
-        <v>331575773439.93793</v>
-      </c>
-      <c r="J22">
-        <f t="shared" ref="J22" si="11">J21/J17</f>
-        <v>228220565957.47122</v>
-      </c>
-      <c r="K22">
-        <f t="shared" ref="K22" si="12">K21/K17</f>
-        <v>19628527750.308578</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23">
-        <f>2*B19*B22</f>
-        <v>1027601.1352653736</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ref="C23" si="13">2*C19*C22</f>
-        <v>823392.6531078408</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ref="D23" si="14">2*D19*D22</f>
-        <v>674810.52779921191</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ref="E23" si="15">2*E19*E22</f>
-        <v>760650.77695128531</v>
-      </c>
-      <c r="F23">
-        <f t="shared" ref="F23" si="16">2*F19*F22</f>
-        <v>1599897.5266521389</v>
-      </c>
-      <c r="G23">
-        <f>2*G19*G22</f>
-        <v>3227058.1156501942</v>
-      </c>
-      <c r="H23">
-        <f>2*H19*H22</f>
-        <v>1854219.1171518965</v>
-      </c>
-      <c r="I23">
-        <f t="shared" ref="I23" si="17">2*I19*I22</f>
-        <v>632578.58478475455</v>
-      </c>
-      <c r="J23">
-        <f t="shared" ref="J23" si="18">2*J19*J22</f>
-        <v>1439501.1969546932</v>
-      </c>
-      <c r="K23">
-        <f t="shared" ref="K23" si="19">2*K19*K22</f>
-        <v>222513.47451837733</v>
-      </c>
-    </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <f>B23/B19</f>
+        <v>153255901058.61465</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24" si="6">C23/C19</f>
+        <v>143081832136.74579</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24" si="7">D23/D19</f>
+        <v>138942023688.16077</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24" si="8">E23/E19</f>
+        <v>256064886156.89133</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24" si="9">F23/F19</f>
+        <v>623421581187.29004</v>
+      </c>
+      <c r="G24">
+        <f>G23/G19</f>
+        <v>1575058874830.9023</v>
+      </c>
+      <c r="H24">
+        <f>H23/H19</f>
+        <v>164283916768.58832</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24" si="10">I23/I19</f>
+        <v>331575773439.93793</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24" si="11">J23/J19</f>
+        <v>228220565957.47122</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ref="K24" si="12">K23/K19</f>
+        <v>19628527750.308578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <f>2*B21*B24</f>
+        <v>1027601.1352653736</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25" si="13">2*C21*C24</f>
+        <v>823392.6531078408</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25" si="14">2*D21*D24</f>
+        <v>674810.52779921191</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25" si="15">2*E21*E24</f>
+        <v>760650.77695128531</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25" si="16">2*F21*F24</f>
+        <v>1599897.5266521389</v>
+      </c>
+      <c r="G25">
+        <f>2*G21*G24</f>
+        <v>3227058.1156501942</v>
+      </c>
+      <c r="H25">
+        <f>2*H21*H24</f>
+        <v>1854219.1171518965</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25" si="17">2*I21*I24</f>
+        <v>632578.58478475455</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25" si="18">2*J21*J24</f>
+        <v>1439501.1969546932</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25" si="19">2*K21*K24</f>
+        <v>222513.47451837733</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B24" t="e">
-        <f>2*B20*B22</f>
+      <c r="B26" t="e">
+        <f>2*B22*B24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C24" t="e">
-        <f t="shared" ref="C24:K24" si="20">2*C20*C22</f>
+      <c r="C26" t="e">
+        <f t="shared" ref="C26:K26" si="20">2*C22*C24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D24" t="e">
+      <c r="D26" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E24" t="e">
+      <c r="E26" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F24" t="e">
+      <c r="F26" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G24" t="e">
+      <c r="G26" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H24" t="e">
+      <c r="H26" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I24" t="e">
+      <c r="I26" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J24" t="e">
+      <c r="J26" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K24" t="e">
+      <c r="K26" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
-        <f>B23/3650</f>
+      <c r="B27">
+        <f>B25/3650</f>
         <v>281.53455760695169</v>
       </c>
-      <c r="C25">
-        <f t="shared" ref="C25:K25" si="21">C23/3650</f>
+      <c r="C27">
+        <f t="shared" ref="C27:K27" si="21">C25/3650</f>
         <v>225.5870282487235</v>
       </c>
-      <c r="D25">
+      <c r="D27">
         <f t="shared" si="21"/>
         <v>184.87959665731833</v>
       </c>
-      <c r="E25">
+      <c r="E27">
         <f t="shared" si="21"/>
         <v>208.39747313733844</v>
       </c>
-      <c r="F25">
+      <c r="F27">
         <f t="shared" si="21"/>
         <v>438.32808949373668</v>
       </c>
-      <c r="G25">
+      <c r="G27">
         <f t="shared" si="21"/>
         <v>884.12551113703955</v>
       </c>
-      <c r="H25">
+      <c r="H27">
         <f t="shared" si="21"/>
         <v>508.00523757586205</v>
       </c>
-      <c r="I25">
+      <c r="I27">
         <f t="shared" si="21"/>
         <v>173.30920131089167</v>
       </c>
-      <c r="J25">
+      <c r="J27">
         <f t="shared" si="21"/>
         <v>394.38388957662829</v>
       </c>
-      <c r="K25">
+      <c r="K27">
         <f t="shared" si="21"/>
         <v>60.962595758459543</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29">
-        <v>2511.2318207100002</v>
-      </c>
-      <c r="C29">
-        <v>2415.2126045999998</v>
-      </c>
-      <c r="D29">
-        <v>2961.03748825</v>
-      </c>
-      <c r="E29">
-        <v>2245.3549645799999</v>
-      </c>
-      <c r="F29">
-        <v>11537.7927562</v>
-      </c>
-      <c r="G29">
-        <v>10273.0730759</v>
-      </c>
-      <c r="H29">
-        <v>2933.3223995200001</v>
-      </c>
-      <c r="I29">
-        <v>4404.68147873</v>
-      </c>
-      <c r="J29">
-        <v>3906.0836666099999</v>
-      </c>
-      <c r="K29">
-        <v>339.774556808</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="1">
-        <v>7.7813706900000001E-2</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.14899131299999999</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.11182881</v>
-      </c>
-      <c r="E30" s="1">
-        <v>9.2471167500000007E-2</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.13130575</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.18022237399999999</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.105765374</v>
-      </c>
-      <c r="I30" s="1">
-        <v>8.0507657799999993E-2</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.17082598800000001</v>
-      </c>
-      <c r="K30" s="1">
-        <v>7.81905393E-2</v>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="1">
-        <v>4.45424563</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.109132625</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2.7539494000000002</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1.00960582</v>
-      </c>
-      <c r="F31" s="1">
-        <v>4.4490491600000004</v>
-      </c>
-      <c r="G31" s="1">
-        <v>2.8558894000000001</v>
-      </c>
-      <c r="H31" s="1">
-        <v>2.22963596</v>
-      </c>
-      <c r="I31" s="1">
-        <v>4.2094079400000002</v>
-      </c>
-      <c r="J31" s="1">
-        <v>3.3821253599999999</v>
-      </c>
-      <c r="K31" s="1">
-        <v>4.2674296700000003</v>
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>-208.14569440899999</v>
+      </c>
+      <c r="C31">
+        <v>-223.54520948499999</v>
+      </c>
+      <c r="D31">
+        <v>-1722.5257657100001</v>
+      </c>
+      <c r="E31">
+        <v>-398.54836697600001</v>
+      </c>
+      <c r="F31">
+        <v>-853.17863990599994</v>
+      </c>
+      <c r="G31">
+        <v>-1823.50716407</v>
+      </c>
+      <c r="H31">
+        <v>-84.428194330099998</v>
+      </c>
+      <c r="I31">
+        <v>-897.40793348399995</v>
+      </c>
+      <c r="J31">
+        <v>-128.15793473299999</v>
+      </c>
+      <c r="K31">
+        <v>-198.74967961499999</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="1">
-        <v>5.0035943300000002E-6</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1.64168424E-5</v>
-      </c>
-      <c r="D32" s="1">
-        <v>5.60862901E-6</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1.00728327E-6</v>
-      </c>
-      <c r="F32" s="1">
-        <v>4.7565338200000004E-6</v>
-      </c>
-      <c r="G32" s="1">
-        <v>5.2556039900000004E-6</v>
-      </c>
-      <c r="H32" s="1">
-        <v>7.6721748799999995E-6</v>
-      </c>
-      <c r="I32" s="1">
-        <v>2.7420033699999999E-6</v>
-      </c>
-      <c r="J32" s="1">
-        <v>7.2936733900000004E-6</v>
-      </c>
-      <c r="K32" s="1">
-        <v>1.2122472800000001E-5</v>
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>2511.2318207100002</v>
+      </c>
+      <c r="C32">
+        <v>2415.2126045999998</v>
+      </c>
+      <c r="D32">
+        <v>2961.03748825</v>
+      </c>
+      <c r="E32">
+        <v>2245.3549645799999</v>
+      </c>
+      <c r="F32">
+        <v>11537.7927562</v>
+      </c>
+      <c r="G32">
+        <v>10273.0730759</v>
+      </c>
+      <c r="H32">
+        <v>2933.3223995200001</v>
+      </c>
+      <c r="I32">
+        <v>4404.68147873</v>
+      </c>
+      <c r="J32">
+        <v>3906.0836666099999</v>
+      </c>
+      <c r="K32">
+        <v>339.774556808</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="B33" s="1">
+        <v>7.7813706900000001E-2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.14899131299999999</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.11182881</v>
+      </c>
+      <c r="E33" s="1">
+        <v>9.2471167500000007E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.13130575</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.18022237399999999</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.105765374</v>
+      </c>
+      <c r="I33" s="1">
+        <v>8.0507657799999993E-2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.17082598800000001</v>
+      </c>
+      <c r="K33" s="1">
+        <v>7.81905393E-2</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4.45424563</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.109132625</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2.7539494000000002</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1.00960582</v>
+      </c>
+      <c r="F34" s="1">
+        <v>4.4490491600000004</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2.8558894000000001</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2.22963596</v>
+      </c>
+      <c r="I34" s="1">
+        <v>4.2094079400000002</v>
+      </c>
+      <c r="J34" s="1">
+        <v>3.3821253599999999</v>
+      </c>
+      <c r="K34" s="1">
+        <v>4.2674296700000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5.0035943300000002E-6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.64168424E-5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5.60862901E-6</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1.00728327E-6</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4.7565338200000004E-6</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5.2556039900000004E-6</v>
+      </c>
+      <c r="H35" s="1">
+        <v>7.6721748799999995E-6</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2.7420033699999999E-6</v>
+      </c>
+      <c r="J35" s="1">
+        <v>7.2936733900000004E-6</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1.2122472800000001E-5</v>
+      </c>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="B34">
-        <f>B29/4*1000000000</f>
+      <c r="B37">
+        <f>B32/4*1000000000</f>
         <v>627807955177.5</v>
       </c>
-      <c r="C34">
-        <f t="shared" ref="C34:K34" si="22">C29/4*1000000000</f>
+      <c r="C37">
+        <f t="shared" ref="C37:K37" si="22">C32/4*1000000000</f>
         <v>603803151150</v>
       </c>
-      <c r="D34">
+      <c r="D37">
         <f t="shared" si="22"/>
         <v>740259372062.5</v>
       </c>
-      <c r="E34">
+      <c r="E37">
         <f t="shared" si="22"/>
         <v>561338741145</v>
       </c>
-      <c r="F34">
+      <c r="F37">
         <f t="shared" si="22"/>
         <v>2884448189050</v>
       </c>
-      <c r="G34">
+      <c r="G37">
         <f t="shared" si="22"/>
         <v>2568268268975</v>
       </c>
-      <c r="H34">
+      <c r="H37">
         <f t="shared" si="22"/>
         <v>733330599880</v>
       </c>
-      <c r="I34">
+      <c r="I37">
         <f t="shared" si="22"/>
         <v>1101170369682.5</v>
       </c>
-      <c r="J34">
+      <c r="J37">
         <f t="shared" si="22"/>
         <v>976520916652.5</v>
       </c>
-      <c r="K34">
+      <c r="K37">
         <f t="shared" si="22"/>
         <v>84943639202</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>8</v>
       </c>
-      <c r="B35">
-        <f>B34/B30</f>
+      <c r="B38">
+        <f>B37/B33</f>
         <v>8068089546027.0127</v>
       </c>
-      <c r="C35">
-        <f t="shared" ref="C35" si="23">C34/C30</f>
+      <c r="C38">
+        <f t="shared" ref="C38" si="23">C37/C33</f>
         <v>4052606417060.0337</v>
       </c>
-      <c r="D35">
-        <f t="shared" ref="D35" si="24">D34/D30</f>
+      <c r="D38">
+        <f t="shared" ref="D38" si="24">D37/D33</f>
         <v>6619576583730.9727</v>
       </c>
-      <c r="E35">
-        <f t="shared" ref="E35" si="25">E34/E30</f>
+      <c r="E38">
+        <f t="shared" ref="E38" si="25">E37/E33</f>
         <v>6070419097336.4746</v>
       </c>
-      <c r="F35">
-        <f t="shared" ref="F35" si="26">F34/F30</f>
+      <c r="F38">
+        <f t="shared" ref="F38" si="26">F37/F33</f>
         <v>21967417185081.383</v>
       </c>
-      <c r="G35">
-        <f t="shared" ref="G35" si="27">G34/G30</f>
+      <c r="G38">
+        <f t="shared" ref="G38" si="27">G37/G33</f>
         <v>14250551759877.496</v>
       </c>
-      <c r="H35">
-        <f t="shared" ref="H35" si="28">H34/H30</f>
+      <c r="H38">
+        <f t="shared" ref="H38" si="28">H37/H33</f>
         <v>6933560315117.876</v>
       </c>
-      <c r="I35">
-        <f t="shared" ref="I35" si="29">I34/I30</f>
+      <c r="I38">
+        <f t="shared" ref="I38" si="29">I37/I33</f>
         <v>13677833882809.842</v>
       </c>
-      <c r="J35">
-        <f t="shared" ref="J35" si="30">J34/J30</f>
+      <c r="J38">
+        <f t="shared" ref="J38" si="30">J37/J33</f>
         <v>5716465791214.9756</v>
       </c>
-      <c r="K35">
-        <f t="shared" ref="K35" si="31">K34/K30</f>
+      <c r="K38">
+        <f t="shared" ref="K38" si="31">K37/K33</f>
         <v>1086367225017.9761</v>
       </c>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>12</v>
       </c>
-      <c r="B36">
-        <f>2*B32*B35</f>
+      <c r="B39">
+        <f>2*B35*B38</f>
         <v>80738894.212866068</v>
       </c>
-      <c r="C36">
-        <f t="shared" ref="C36" si="32">2*C32*C35</f>
+      <c r="C39">
+        <f t="shared" ref="C39" si="32">2*C35*C38</f>
         <v>133062001.71620649</v>
       </c>
-      <c r="D36">
-        <f t="shared" ref="D36" si="33">2*D32*D35</f>
+      <c r="D39">
+        <f t="shared" ref="D39" si="33">2*D35*D38</f>
         <v>74253498.522860453</v>
       </c>
-      <c r="E36">
-        <f t="shared" ref="E36" si="34">2*E32*E35</f>
+      <c r="E39">
+        <f t="shared" ref="E39" si="34">2*E35*E38</f>
         <v>12229263.197271064</v>
       </c>
-      <c r="F36">
-        <f t="shared" ref="F36" si="35">2*F32*F35</f>
+      <c r="F39">
+        <f t="shared" ref="F39" si="35">2*F35*F38</f>
         <v>208977525.55777761</v>
       </c>
-      <c r="G36">
-        <f t="shared" ref="G36" si="36">2*G32*G35</f>
+      <c r="G39">
+        <f t="shared" ref="G39" si="36">2*G35*G38</f>
         <v>149790513.37782741</v>
       </c>
-      <c r="H36">
-        <f t="shared" ref="H36" si="37">2*H32*H35</f>
+      <c r="H39">
+        <f t="shared" ref="H39" si="37">2*H35*H38</f>
         <v>106390974.5572245</v>
       </c>
-      <c r="I36">
-        <f t="shared" ref="I36" si="38">2*I32*I35</f>
+      <c r="I39">
+        <f t="shared" ref="I39" si="38">2*I35*I38</f>
         <v>75009333.201929539</v>
       </c>
-      <c r="J36">
-        <f t="shared" ref="J36" si="39">2*J32*J35</f>
+      <c r="J39">
+        <f t="shared" ref="J39" si="39">2*J35*J38</f>
         <v>83388068.852459937</v>
       </c>
-      <c r="K36">
-        <f t="shared" ref="K36" si="40">2*K32*K35</f>
+      <c r="K39">
+        <f t="shared" ref="K39" si="40">2*K35*K38</f>
         <v>26338914.272183791</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>14</v>
       </c>
-      <c r="B37" t="e">
-        <f>2*B33*B35</f>
+      <c r="B40" t="e">
+        <f>2*B36*B38</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C37" t="e">
-        <f t="shared" ref="C37:K37" si="41">2*C33*C35</f>
+      <c r="C40" t="e">
+        <f t="shared" ref="C40:K40" si="41">2*C36*C38</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D37" t="e">
+      <c r="D40" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E37" t="e">
+      <c r="E40" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F37" t="e">
+      <c r="F40" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G37" t="e">
+      <c r="G40" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H37" t="e">
+      <c r="H40" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I37" t="e">
+      <c r="I40" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J37" t="e">
+      <c r="J40" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K37" t="e">
+      <c r="K40" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="2">
-        <f>B36/3650</f>
+      <c r="B41" s="2">
+        <f>B39/3650</f>
         <v>22120.244989826318</v>
       </c>
-      <c r="C38" s="2">
-        <f t="shared" ref="C38:K38" si="42">C36/3650</f>
+      <c r="C41" s="2">
+        <f t="shared" ref="C41:K41" si="42">C39/3650</f>
         <v>36455.342935946981</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D41" s="2">
         <f t="shared" si="42"/>
         <v>20343.424252838478</v>
       </c>
-      <c r="E38">
+      <c r="E41">
         <f t="shared" si="42"/>
         <v>3350.483067745497</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F41" s="2">
         <f t="shared" si="42"/>
         <v>57254.116591171951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G41" s="2">
         <f t="shared" si="42"/>
         <v>41038.496815843122</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H41" s="2">
         <f t="shared" si="42"/>
         <v>29148.212207458768</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I41" s="2">
         <f t="shared" si="42"/>
         <v>20550.502247103985</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J41" s="2">
         <f t="shared" si="42"/>
         <v>22846.046260947929</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K41" s="2">
         <f t="shared" si="42"/>
         <v>7216.1408964887096</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" t="s">
-        <v>22</v>
-      </c>
-      <c r="J41" t="s">
-        <v>23</v>
-      </c>
-      <c r="K41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42">
-        <v>2511.1568320299998</v>
-      </c>
-      <c r="C42">
-        <v>2415.1893283899999</v>
-      </c>
-      <c r="D42">
-        <v>2960.9828271800002</v>
-      </c>
-      <c r="E42">
-        <v>2245.2358191799999</v>
-      </c>
-      <c r="F42">
-        <v>11537.872127000001</v>
-      </c>
-      <c r="G42">
-        <v>10272.997992799999</v>
-      </c>
-      <c r="H42">
-        <v>2933.36067766</v>
-      </c>
-      <c r="I42">
-        <v>9425.8874565000006</v>
-      </c>
-      <c r="J42">
-        <v>3906.0784523699999</v>
-      </c>
-      <c r="K42">
-        <v>339.77832698100002</v>
-      </c>
-    </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1.3676202799999999</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0.87266450500000003</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2.7153914100000001</v>
-      </c>
-      <c r="E43" s="1">
-        <v>2.87729116</v>
-      </c>
-      <c r="F43" s="1">
-        <v>2.2852013800000002</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1.3297028</v>
-      </c>
-      <c r="H43" s="1">
-        <v>1.0746156099999999</v>
-      </c>
-      <c r="I43" s="1">
-        <v>1.54383833</v>
-      </c>
-      <c r="J43" s="1">
-        <v>1.65557183</v>
-      </c>
-      <c r="K43" s="1">
-        <v>1.1647666699999999</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="1">
-        <v>3.4164464200000002</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2.9543091399999999</v>
-      </c>
-      <c r="D44" s="1">
-        <v>3.2558582</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0.95586949799999998</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1.3789911399999999</v>
-      </c>
-      <c r="G44" s="1">
-        <v>3.1504380699999999</v>
-      </c>
-      <c r="H44" s="1">
-        <v>1.10774051</v>
-      </c>
-      <c r="I44" s="1">
-        <v>2.0933972600000001</v>
-      </c>
-      <c r="J44" s="1">
-        <v>1.87413557</v>
-      </c>
-      <c r="K44" s="1">
-        <v>1.3551059999999999</v>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="1">
-        <v>2.7460762100000002E-6</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1.61170089E-6</v>
-      </c>
-      <c r="D45" s="1">
-        <v>5.21114711E-6</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1.05506926E-5</v>
-      </c>
-      <c r="F45" s="1">
-        <v>4.0198801999999996E-6</v>
-      </c>
-      <c r="G45" s="1">
-        <v>2.26380537E-6</v>
-      </c>
-      <c r="H45" s="1">
-        <v>5.3439341699999998E-6</v>
-      </c>
-      <c r="I45" s="1">
-        <v>3.1889152700000002E-6</v>
-      </c>
-      <c r="J45" s="1">
-        <v>6.2851956700000002E-6</v>
-      </c>
-      <c r="K45" s="1">
-        <v>4.4042300100000003E-6</v>
+        <v>27</v>
+      </c>
+      <c r="B45">
+        <v>-208.080701909</v>
+      </c>
+      <c r="C45">
+        <v>-223.52943450399999</v>
+      </c>
+      <c r="D45">
+        <v>-1722.4327783399999</v>
+      </c>
+      <c r="E45">
+        <v>-398.36044286399999</v>
+      </c>
+      <c r="F45">
+        <v>-853.24571596299995</v>
+      </c>
+      <c r="G45">
+        <v>-1823.4028529699999</v>
+      </c>
+      <c r="H45">
+        <v>-84.430912171000003</v>
+      </c>
+      <c r="I45">
+        <v>-897.26641094299998</v>
+      </c>
+      <c r="J45">
+        <v>-128.156369625</v>
+      </c>
+      <c r="K45">
+        <v>-198.756543857</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="1">
-        <v>1.19722591E-5</v>
-      </c>
-      <c r="C46" s="1">
-        <v>9.99437888E-6</v>
-      </c>
-      <c r="D46" s="1">
-        <v>6.7964977600000004E-6</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1.9095439700000001E-6</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1.7391346599999999E-6</v>
-      </c>
-      <c r="G46" s="1">
-        <v>8.84391526E-6</v>
-      </c>
-      <c r="H46" s="1">
-        <v>6.0547779300000002E-6</v>
-      </c>
-      <c r="I46" s="1">
-        <v>6.1381208800000001E-6</v>
-      </c>
-      <c r="J46" s="1">
-        <v>7.7485840900000003E-6</v>
-      </c>
-      <c r="K46" s="1">
-        <v>7.1347322600000002E-6</v>
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <v>2511.1568320299998</v>
+      </c>
+      <c r="C46">
+        <v>2415.1893283899999</v>
+      </c>
+      <c r="D46">
+        <v>2960.9828271800002</v>
+      </c>
+      <c r="E46">
+        <v>2245.2358191799999</v>
+      </c>
+      <c r="F46">
+        <v>11537.872127000001</v>
+      </c>
+      <c r="G46">
+        <v>10272.997992799999</v>
+      </c>
+      <c r="H46">
+        <v>2933.36067766</v>
+      </c>
+      <c r="I46">
+        <v>9425.8874565000006</v>
+      </c>
+      <c r="J46">
+        <v>3906.0784523699999</v>
+      </c>
+      <c r="K46">
+        <v>339.77832698100002</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1.3676202799999999</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.87266450500000003</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2.7153914100000001</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2.87729116</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2.2852013800000002</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1.3297028</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1.0746156099999999</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1.54383833</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1.65557183</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1.1647666699999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3.4164464200000002</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2.9543091399999999</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3.2558582</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.95586949799999998</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1.3789911399999999</v>
+      </c>
+      <c r="G48" s="1">
+        <v>3.1504380699999999</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1.10774051</v>
+      </c>
+      <c r="I48" s="1">
+        <v>2.0933972600000001</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1.87413557</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1.3551059999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2.7460762100000002E-6</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1.61170089E-6</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5.21114711E-6</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1.05506926E-5</v>
+      </c>
+      <c r="F49" s="1">
+        <v>4.0198801999999996E-6</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2.26380537E-6</v>
+      </c>
+      <c r="H49" s="1">
+        <v>5.3439341699999998E-6</v>
+      </c>
+      <c r="I49" s="1">
+        <v>3.1889152700000002E-6</v>
+      </c>
+      <c r="J49" s="1">
+        <v>6.2851956700000002E-6</v>
+      </c>
+      <c r="K49" s="1">
+        <v>4.4042300100000003E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1.19722591E-5</v>
+      </c>
+      <c r="C50" s="1">
+        <v>9.99437888E-6</v>
+      </c>
+      <c r="D50" s="1">
+        <v>6.7964977600000004E-6</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1.9095439700000001E-6</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1.7391346599999999E-6</v>
+      </c>
+      <c r="G50" s="1">
+        <v>8.84391526E-6</v>
+      </c>
+      <c r="H50" s="1">
+        <v>6.0547779300000002E-6</v>
+      </c>
+      <c r="I50" s="1">
+        <v>6.1381208800000001E-6</v>
+      </c>
+      <c r="J50" s="1">
+        <v>7.7485840900000003E-6</v>
+      </c>
+      <c r="K50" s="1">
+        <v>7.1347322600000002E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>6</v>
       </c>
-      <c r="B47">
-        <f>B42/4*1000000000</f>
+      <c r="B51">
+        <f>B46/4*1000000000</f>
         <v>627789208007.5</v>
       </c>
-      <c r="C47">
-        <f t="shared" ref="C47:K47" si="43">C42/4*1000000000</f>
+      <c r="C51">
+        <f t="shared" ref="C51:K51" si="43">C46/4*1000000000</f>
         <v>603797332097.5</v>
       </c>
-      <c r="D47">
+      <c r="D51">
         <f t="shared" si="43"/>
         <v>740245706795</v>
       </c>
-      <c r="E47">
+      <c r="E51">
         <f t="shared" si="43"/>
         <v>561308954795</v>
       </c>
-      <c r="F47">
+      <c r="F51">
         <f t="shared" si="43"/>
         <v>2884468031750</v>
       </c>
-      <c r="G47">
+      <c r="G51">
         <f t="shared" si="43"/>
         <v>2568249498200</v>
       </c>
-      <c r="H47">
+      <c r="H51">
         <f t="shared" si="43"/>
         <v>733340169415</v>
       </c>
-      <c r="I47">
+      <c r="I51">
         <f t="shared" si="43"/>
         <v>2356471864125</v>
       </c>
-      <c r="J47">
+      <c r="J51">
         <f t="shared" si="43"/>
         <v>976519613092.5</v>
       </c>
-      <c r="K47">
+      <c r="K51">
         <f t="shared" si="43"/>
         <v>84944581745.25</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>8</v>
       </c>
-      <c r="B48">
-        <f>B47/B43</f>
+      <c r="B52">
+        <f>B51/B47</f>
         <v>459037656276.56531</v>
       </c>
-      <c r="C48">
-        <f t="shared" ref="C48" si="44">C47/C43</f>
+      <c r="C52">
+        <f t="shared" ref="C52" si="44">C51/C47</f>
         <v>691900872142.72571</v>
       </c>
-      <c r="D48">
-        <f t="shared" ref="D48" si="45">D47/D43</f>
+      <c r="D52">
+        <f t="shared" ref="D52" si="45">D51/D47</f>
         <v>272611051235.1514</v>
       </c>
-      <c r="E48">
-        <f t="shared" ref="E48" si="46">E47/E43</f>
+      <c r="E52">
+        <f t="shared" ref="E52" si="46">E51/E47</f>
         <v>195082431211.09787</v>
       </c>
-      <c r="F48">
-        <f t="shared" ref="F48" si="47">F47/F43</f>
+      <c r="F52">
+        <f t="shared" ref="F52" si="47">F51/F47</f>
         <v>1262238005365.6365</v>
       </c>
-      <c r="G48">
-        <f t="shared" ref="G48" si="48">G47/G43</f>
+      <c r="G52">
+        <f t="shared" ref="G52" si="48">G51/G47</f>
         <v>1931446258667.7263</v>
       </c>
-      <c r="H48">
-        <f t="shared" ref="H48" si="49">H47/H43</f>
+      <c r="H52">
+        <f t="shared" ref="H52" si="49">H51/H47</f>
         <v>682420916456.81567</v>
       </c>
-      <c r="I48">
-        <f t="shared" ref="I48" si="50">I47/I43</f>
+      <c r="I52">
+        <f t="shared" ref="I52" si="50">I51/I47</f>
         <v>1526372171446.8638</v>
       </c>
-      <c r="J48">
-        <f t="shared" ref="J48" si="51">J47/J43</f>
+      <c r="J52">
+        <f t="shared" ref="J52" si="51">J51/J47</f>
         <v>589838263370.6084</v>
       </c>
-      <c r="K48">
-        <f t="shared" ref="K48" si="52">K47/K43</f>
+      <c r="K52">
+        <f t="shared" ref="K52" si="52">K51/K47</f>
         <v>72928410413.091583</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>12</v>
       </c>
-      <c r="B49">
-        <f>2*B45*B48</f>
+      <c r="B53">
+        <f>2*B49*B52</f>
         <v>2521104.7747904663</v>
       </c>
-      <c r="C49">
-        <f t="shared" ref="C49" si="53">2*C45*C48</f>
+      <c r="C53">
+        <f t="shared" ref="C53" si="53">2*C49*C52</f>
         <v>2230274.5028484147</v>
       </c>
-      <c r="D49">
-        <f t="shared" ref="D49" si="54">2*D45*D48</f>
+      <c r="D53">
+        <f t="shared" ref="D53" si="54">2*D49*D52</f>
         <v>2841232.5835962421</v>
       </c>
-      <c r="E49">
-        <f t="shared" ref="E49" si="55">2*E45*E48</f>
+      <c r="E53">
+        <f t="shared" ref="E53" si="55">2*E49*E52</f>
         <v>4116509.5267378786</v>
       </c>
-      <c r="F49">
-        <f t="shared" ref="F49" si="56">2*F45*F48</f>
+      <c r="F53">
+        <f t="shared" ref="F53" si="56">2*F49*F52</f>
         <v>10148091.13091363</v>
       </c>
-      <c r="G49">
-        <f t="shared" ref="G49" si="57">2*G45*G48</f>
+      <c r="G53">
+        <f t="shared" ref="G53" si="57">2*G49*G52</f>
         <v>8744836.8244768158</v>
       </c>
-      <c r="H49">
-        <f t="shared" ref="H49" si="58">2*H45*H48</f>
+      <c r="H53">
+        <f t="shared" ref="H53" si="58">2*H49*H52</f>
         <v>7293624.907552585</v>
       </c>
-      <c r="I49">
-        <f t="shared" ref="I49" si="59">2*I45*I48</f>
+      <c r="I53">
+        <f t="shared" ref="I53" si="59">2*I49*I52</f>
         <v>9734943.0504599251</v>
       </c>
-      <c r="J49">
-        <f t="shared" ref="J49" si="60">2*J45*J48</f>
+      <c r="J53">
+        <f t="shared" ref="J53" si="60">2*J49*J52</f>
         <v>7414497.7978745354</v>
       </c>
-      <c r="K49">
-        <f t="shared" ref="K49" si="61">2*K45*K48</f>
+      <c r="K53">
+        <f t="shared" ref="K53" si="61">2*K49*K52</f>
         <v>642386.9874458689</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>14</v>
       </c>
-      <c r="B50">
-        <f>2*B46*B48</f>
+      <c r="B54">
+        <f>2*B50*B52</f>
         <v>10991435.515199563</v>
       </c>
-      <c r="C50">
-        <f t="shared" ref="C50:K50" si="62">2*C46*C48</f>
+      <c r="C54">
+        <f t="shared" ref="C54:K54" si="62">2*C50*C52</f>
         <v>13830238.927193677</v>
       </c>
-      <c r="D50">
+      <c r="D54">
         <f t="shared" si="62"/>
         <v>3705600.7981419037</v>
       </c>
-      <c r="E50">
+      <c r="E54">
         <f t="shared" si="62"/>
         <v>745036.96034418349</v>
       </c>
-      <c r="F50">
+      <c r="F54">
         <f t="shared" si="62"/>
         <v>4390403.728601289</v>
       </c>
-      <c r="G50">
+      <c r="G54">
         <f t="shared" si="62"/>
         <v>34163094.081802823</v>
       </c>
-      <c r="H50">
+      <c r="H54">
         <f t="shared" si="62"/>
         <v>8263814.207866203</v>
       </c>
-      <c r="I50">
+      <c r="I54">
         <f t="shared" si="62"/>
         <v>18738113.792417869</v>
       </c>
-      <c r="J50">
+      <c r="J54">
         <f t="shared" si="62"/>
         <v>9140822.7664534524</v>
       </c>
-      <c r="K50">
+      <c r="K54">
         <f t="shared" si="62"/>
         <v>1040649.3648896089</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>25</v>
       </c>
-      <c r="B51">
-        <f>B49/3650</f>
+      <c r="B55">
+        <f>B53/3650</f>
         <v>690.71363692889486</v>
       </c>
-      <c r="C51">
-        <f t="shared" ref="C51:K51" si="63">C49/3650</f>
+      <c r="C55">
+        <f t="shared" ref="C55:K55" si="63">C53/3650</f>
         <v>611.03411036942873</v>
       </c>
-      <c r="D51">
+      <c r="D55">
         <f t="shared" si="63"/>
         <v>778.41988591677864</v>
       </c>
-      <c r="E51">
+      <c r="E55">
         <f t="shared" si="63"/>
         <v>1127.8108292432544</v>
       </c>
-      <c r="F51">
+      <c r="F55">
         <f t="shared" si="63"/>
         <v>2780.2989399763369</v>
       </c>
-      <c r="G51">
+      <c r="G55">
         <f t="shared" si="63"/>
         <v>2395.845705336114</v>
       </c>
-      <c r="H51">
+      <c r="H55">
         <f t="shared" si="63"/>
         <v>1998.2533993294753</v>
       </c>
-      <c r="I51">
+      <c r="I55">
         <f t="shared" si="63"/>
         <v>2667.1076850575137</v>
       </c>
-      <c r="J51">
+      <c r="J55">
         <f t="shared" si="63"/>
         <v>2031.3692596916535</v>
       </c>
-      <c r="K51">
+      <c r="K55">
         <f t="shared" si="63"/>
         <v>175.99643491667641</v>
       </c>

--- a/Summary/output_summary.xlsx
+++ b/Summary/output_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Desktop\GitHub\demo_for_ccgb\Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1523884D-CAA8-4906-A0E3-82C4D308FAB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF2187F-79F0-47FF-9FEC-0C56949D24EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{9F4B9699-7361-44C9-88F2-01D9ADA6A85E}"/>
+    <workbookView xWindow="-6600" yWindow="1068" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{9F4B9699-7361-44C9-88F2-01D9ADA6A85E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="25">
   <si>
     <t>theta</t>
   </si>
@@ -97,28 +97,19 @@
     <t>three_epoch</t>
   </si>
   <si>
-    <t>p_copri</t>
-  </si>
-  <si>
-    <t>o_splanchnicus</t>
-  </si>
-  <si>
-    <t>a_shahii</t>
-  </si>
-  <si>
-    <t>coprococcus_sp</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>exp_time (years)</t>
   </si>
   <si>
-    <t>b_massiliensis</t>
+    <t>LL</t>
   </si>
   <si>
-    <t>LL</t>
+    <t>no singletons</t>
+  </si>
+  <si>
+    <t>no singletons or doubletons</t>
   </si>
 </sst>
 </file>
@@ -160,10 +151,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1291,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A941B0-2F65-4D9C-86F5-1774512E76E7}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1303,1892 +1295,1304 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>16</v>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3">
-        <v>-208.17059266300001</v>
-      </c>
-      <c r="C3">
-        <v>-223.576366468</v>
-      </c>
-      <c r="D3">
-        <v>-1722.5465346799999</v>
-      </c>
-      <c r="E3">
-        <v>-398.504467277</v>
-      </c>
-      <c r="F3">
-        <v>-853.427262767</v>
-      </c>
-      <c r="G3">
-        <v>-1823.5852384</v>
-      </c>
-      <c r="H3">
-        <v>-84.427743076799999</v>
-      </c>
-      <c r="I3">
-        <v>-897.49177724200001</v>
-      </c>
-      <c r="J3">
-        <v>-128.16273383199999</v>
-      </c>
-      <c r="K3">
-        <v>-198.75432955900001</v>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>2511.2605348100001</v>
+        <v>-142.24748364800001</v>
       </c>
       <c r="C4">
-        <v>2415.25855658</v>
+        <v>-181.63539797300001</v>
       </c>
       <c r="D4">
-        <v>2961.0496956100001</v>
+        <v>-253.21714636900001</v>
       </c>
       <c r="E4">
-        <v>2245.3271439599998</v>
+        <v>-131.83585437100001</v>
       </c>
       <c r="F4">
-        <v>11538.0869002</v>
+        <v>-174.082255637</v>
       </c>
       <c r="G4">
-        <v>10273.129271100001</v>
-      </c>
-      <c r="H4">
-        <v>2933.3160406000002</v>
-      </c>
-      <c r="I4">
-        <v>4404.7177118400004</v>
-      </c>
-      <c r="J4">
-        <v>3906.09965379</v>
-      </c>
-      <c r="K4">
-        <v>339.77711082799999</v>
+        <v>-230.27434391899999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5.1660853099999997</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5.0686627599999999E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5.1193328100000004</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4.8966717400000004</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.6325430599999999</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2.6603219</v>
-      </c>
-      <c r="H5" s="1">
-        <v>5.36526908</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2.2637418299999998</v>
-      </c>
-      <c r="J5" s="1">
-        <v>3.39036114</v>
-      </c>
-      <c r="K5" s="1">
-        <v>4.4308280399999997</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>2364.5714883199998</v>
+      </c>
+      <c r="C5">
+        <v>2302.2924041800002</v>
+      </c>
+      <c r="D5">
+        <v>2054.4914135600002</v>
+      </c>
+      <c r="E5">
+        <v>2325.7760280500001</v>
+      </c>
+      <c r="F5">
+        <v>2274.3873777200001</v>
+      </c>
+      <c r="G5">
+        <v>1998.25465652</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.66658091600000002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.62370462500000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.48016284100000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.16115707000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.13788145099999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.18466692000000001</v>
+      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2.3674562200000002E-6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7.6449899199999995E-6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3.2509883800000001E-6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.9930798700000001E-6</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5.3618714099999999E-7</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.72381963E-6</v>
-      </c>
-      <c r="H7" s="1">
-        <v>5.8232823100000002E-6</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1.37011541E-6</v>
-      </c>
-      <c r="J7" s="1">
-        <v>3.7225683400000001E-6</v>
-      </c>
-      <c r="K7" s="1">
-        <v>5.9646454800000003E-6</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4.2206500099999998E-6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.3455818000000002E-6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.8918380299999999E-6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5.7843980899999997E-6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6.1705568099999997E-6</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6.4886792500000001E-6</v>
+      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <f>B4/4/0.000000001</f>
-        <v>627815133702.5</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ref="C9:K9" si="0">C4/4*1000000000</f>
-        <v>603814639145</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>740262423902.5</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>561331785990</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>2884521725050</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>2568282317775</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>733329010150</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>1101179427960</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>976524913447.5</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>84944277707</v>
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <f>B9/B5</f>
-        <v>121526280738.57729</v>
+        <f>B5/4/0.0000000005</f>
+        <v>1182285744159.9998</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:K10" si="1">C9/C5</f>
-        <v>11912700996998.27</v>
+        <f t="shared" ref="C10:G10" si="0">C5/4/0.0000000005</f>
+        <v>1151146202090</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
-        <v>144601347749.16107</v>
+        <f t="shared" si="0"/>
+        <v>1027245706780</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>114635371900.58812</v>
+        <f t="shared" si="0"/>
+        <v>1162888014025</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>1766888602037.8538</v>
+        <f t="shared" si="0"/>
+        <v>1137193688860</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>965402840075.48108</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>136680751555.14847</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>486442143431.17035</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>288029762353.72375</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>19171197108.114357</v>
+        <f t="shared" si="0"/>
+        <v>999127328260</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <f>2*B7*B10</f>
-        <v>575416.29845602205</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ref="C11:K11" si="2">2*C7*C10</f>
-        <v>182144958.08405143</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>940194.60252972366</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>456954.90425005165</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>1894765.8959843272</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>3328360.7331597297</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>1591861.2052972021</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
-        <v>1332963.7535769537</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>2144420.9486313919</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="2"/>
-        <v>228698.78835420674</v>
+        <f>B10/B6</f>
+        <v>1773656754613.7185</v>
+      </c>
+      <c r="C11" s="3">
+        <f>C10/C6</f>
+        <v>1845659236677.9387</v>
+      </c>
+      <c r="D11" s="3">
+        <f>D10/D6</f>
+        <v>2139369436919.8386</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" ref="E11:G11" si="1">E10/E6</f>
+        <v>7215867191088.792</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>8247619100411.1211</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>5410429373382.0869</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <f>2*B8*B11</f>
+        <v>14971968.798193917</v>
+      </c>
+      <c r="C12" s="3">
+        <f>2*C8*C11</f>
+        <v>19732244.849174965</v>
+      </c>
+      <c r="D12" s="3">
+        <f>2*D8*D11</f>
+        <v>8094680.9219692731</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" ref="E12:G12" si="2">2*E8*E11</f>
+        <v>83478896.79565534</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="2"/>
+        <v>101784804.41265583</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="2"/>
+        <v>70213081.617309704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="e">
-        <f>2*B8*B10</f>
+      <c r="B13" t="e">
+        <f>2*B9*B11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C12" t="e">
-        <f t="shared" ref="C12:K12" si="3">2*C8*C10</f>
+      <c r="C13" s="3" t="e">
+        <f>2*C9*C11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D12" t="e">
+      <c r="D13" s="3" t="e">
+        <f>2*D9*D11</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" s="3" t="e">
+        <f t="shared" ref="E13:G13" si="3">2*E9*E11</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E12" t="e">
+      <c r="G13" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F12" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G12" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H12" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I12" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J12" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K12" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13">
-        <f>B11/3650</f>
-        <v>157.64830094685536</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" ref="C13:K13" si="4">C11/3650</f>
-        <v>49902.728242205871</v>
-      </c>
-      <c r="D13">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2">
+        <f>B12/1065</f>
+        <v>14058.186664970814</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" ref="C14:G14" si="4">C12/1065</f>
+        <v>18527.929435845039</v>
+      </c>
+      <c r="D14" s="2">
         <f t="shared" si="4"/>
-        <v>257.58756233691059</v>
-      </c>
-      <c r="E13">
+        <v>7600.6393633514299</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="4"/>
-        <v>125.19312445206894</v>
-      </c>
-      <c r="F13">
+        <v>78383.940653197496</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="4"/>
-        <v>519.1139441052951</v>
-      </c>
-      <c r="G13">
+        <v>95572.586302963216</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="4"/>
-        <v>911.87965292047386</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="4"/>
-        <v>436.12635761567179</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="4"/>
-        <v>365.19554892519278</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="4"/>
-        <v>587.51258866613477</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="4"/>
-        <v>62.657202288823768</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
+        <v>65927.77616648798</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D17" t="s">
         <v>4</v>
       </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17">
-        <v>-208.16257295700001</v>
-      </c>
-      <c r="C17">
-        <v>-223.566950386</v>
-      </c>
-      <c r="D17">
-        <v>-1722.56029913</v>
-      </c>
-      <c r="E17">
-        <v>-398.52589105700002</v>
-      </c>
-      <c r="F17">
-        <v>-853.37186158400004</v>
-      </c>
-      <c r="G17">
-        <v>-1823.60758717</v>
-      </c>
-      <c r="H17">
-        <v>-84.428036166699997</v>
-      </c>
-      <c r="I17">
-        <v>-897.49864572199999</v>
-      </c>
-      <c r="J17">
-        <v>-128.163159689</v>
-      </c>
-      <c r="K17">
-        <v>-198.75459269500001</v>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>2511.2512867</v>
+        <v>-142.24748361799999</v>
       </c>
       <c r="C18">
-        <v>2415.2446716999998</v>
+        <v>-181.635397248</v>
       </c>
       <c r="D18">
-        <v>2961.05778586</v>
+        <v>-253.21714369399999</v>
       </c>
       <c r="E18">
-        <v>2245.3407214099998</v>
+        <v>-131.83585429999999</v>
       </c>
       <c r="F18">
-        <v>11538.0213712</v>
+        <v>-174.08225528099999</v>
       </c>
       <c r="G18">
-        <v>10273.145356499999</v>
-      </c>
-      <c r="H18">
-        <v>2933.3201732799998</v>
-      </c>
-      <c r="I18">
-        <v>4404.7206800399999</v>
-      </c>
-      <c r="J18">
-        <v>3906.1010724100001</v>
-      </c>
-      <c r="K18">
-        <v>339.77725535500002</v>
+        <v>-230.27434368900001</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="1">
-        <v>4.0965001499999998</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4.2200407899999997</v>
-      </c>
-      <c r="D19" s="1">
-        <v>5.3278657300000001</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2.1921599199999999</v>
-      </c>
-      <c r="F19" s="1">
-        <v>4.6268936299999996</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1.6305970400000001</v>
-      </c>
-      <c r="H19" s="1">
-        <v>4.46379693</v>
-      </c>
-      <c r="I19" s="1">
-        <v>3.3210513499999998</v>
-      </c>
-      <c r="J19" s="1">
-        <v>4.2788662100000003</v>
-      </c>
-      <c r="K19" s="1">
-        <v>4.3275947600000002</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>2364.57148822</v>
+      </c>
+      <c r="C19">
+        <v>2302.29240093</v>
+      </c>
+      <c r="D19">
+        <v>2054.4914096799998</v>
+      </c>
+      <c r="E19">
+        <v>2325.7760277799998</v>
+      </c>
+      <c r="F19">
+        <v>2274.3873770199998</v>
+      </c>
+      <c r="G19">
+        <v>1998.2546555500001</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" t="s">
-        <v>24</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.62945601299999998</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.70224475799999997</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.71225685900000002</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.18124220599999999</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.14817107500000001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.186322091</v>
+      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="1">
-        <v>3.3525662900000002E-6</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2.8773487200000001E-6</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2.42838887E-6</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1.48526959E-6</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.2831586E-6</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1.0244246E-6</v>
-      </c>
-      <c r="H21" s="1">
-        <v>5.6433373199999997E-6</v>
-      </c>
-      <c r="I21" s="1">
-        <v>9.5389747299999992E-7</v>
-      </c>
-      <c r="J21" s="1">
-        <v>3.1537499500000001E-6</v>
-      </c>
-      <c r="K21" s="1">
-        <v>5.6681142200000003E-6</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" t="s">
-        <v>24</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3.7459547300000001E-6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5.5135860900000002E-6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.1185369000000002E-6</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5.7435433000000001E-6</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5.2685619400000003E-6</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5.2637130300000001E-6</v>
+      </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <f>B18/4*1000000000</f>
-        <v>627812821675</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ref="C23:K23" si="5">C18/4*1000000000</f>
-        <v>603811167925</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="5"/>
-        <v>740264446465</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="5"/>
-        <v>561335180352.5</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="5"/>
-        <v>2884505342800</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="5"/>
-        <v>2568286339125</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="5"/>
-        <v>733330043320</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="5"/>
-        <v>1101180170010</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="5"/>
-        <v>976525268102.5</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="5"/>
-        <v>84944313838.75</v>
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24">
-        <f>B23/B19</f>
-        <v>153255901058.61465</v>
+        <f>B19/4/0.0000000005</f>
+        <v>1182285744110</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24" si="6">C23/C19</f>
-        <v>143081832136.74579</v>
+        <f t="shared" ref="C24:G24" si="5">C19/4/0.0000000005</f>
+        <v>1151146200465</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24" si="7">D23/D19</f>
-        <v>138942023688.16077</v>
+        <f t="shared" si="5"/>
+        <v>1027245704839.9999</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24" si="8">E23/E19</f>
-        <v>256064886156.89133</v>
+        <f t="shared" si="5"/>
+        <v>1162888013889.9998</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24" si="9">F23/F19</f>
-        <v>623421581187.29004</v>
+        <f t="shared" si="5"/>
+        <v>1137193688509.9998</v>
       </c>
       <c r="G24">
-        <f>G23/G19</f>
-        <v>1575058874830.9023</v>
-      </c>
-      <c r="H24">
-        <f>H23/H19</f>
-        <v>164283916768.58832</v>
-      </c>
-      <c r="I24">
-        <f t="shared" ref="I24" si="10">I23/I19</f>
-        <v>331575773439.93793</v>
-      </c>
-      <c r="J24">
-        <f t="shared" ref="J24" si="11">J23/J19</f>
-        <v>228220565957.47122</v>
-      </c>
-      <c r="K24">
-        <f t="shared" ref="K24" si="12">K23/K19</f>
-        <v>19628527750.308578</v>
+        <f t="shared" si="5"/>
+        <v>999127327775</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B25">
-        <f>2*B21*B24</f>
-        <v>1027601.1352653736</v>
+        <f>B24/B20</f>
+        <v>1878265867181.4133</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25" si="13">2*C21*C24</f>
-        <v>823392.6531078408</v>
+        <f t="shared" ref="C25" si="6">C24/C20</f>
+        <v>1639237868778.7942</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25" si="14">2*D21*D24</f>
-        <v>674810.52779921191</v>
+        <f t="shared" ref="D25:G25" si="7">D24/D20</f>
+        <v>1442240523007.7256</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25" si="15">2*E21*E24</f>
-        <v>760650.77695128531</v>
+        <f t="shared" si="7"/>
+        <v>6416209775608.2256</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25" si="16">2*F21*F24</f>
-        <v>1599897.5266521389</v>
+        <f t="shared" si="7"/>
+        <v>7674869663394.1523</v>
       </c>
       <c r="G25">
-        <f>2*G21*G24</f>
-        <v>3227058.1156501942</v>
-      </c>
-      <c r="H25">
-        <f>2*H21*H24</f>
-        <v>1854219.1171518965</v>
-      </c>
-      <c r="I25">
-        <f t="shared" ref="I25" si="17">2*I21*I24</f>
-        <v>632578.58478475455</v>
-      </c>
-      <c r="J25">
-        <f t="shared" ref="J25" si="18">2*J21*J24</f>
-        <v>1439501.1969546932</v>
-      </c>
-      <c r="K25">
-        <f t="shared" ref="K25" si="19">2*K21*K24</f>
-        <v>222513.47451837733</v>
+        <f t="shared" si="7"/>
+        <v>5362366439817.3809</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="e">
-        <f>2*B22*B24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C26" t="e">
-        <f t="shared" ref="C26:K26" si="20">2*C22*C24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D26" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E26" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F26" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G26" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H26" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I26" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J26" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K26" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <f>2*B22*B25</f>
+        <v>14071797.818731535</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26" si="8">2*C22*C25</f>
+        <v>18076158.223000009</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:G26" si="9">2*D22*D25</f>
+        <v>6110879.5333343316</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="9"/>
+        <v>73703557.336178258</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="9"/>
+        <v>80871052.406038091</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="9"/>
+        <v>56451916.201802917</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <f>B25/3650</f>
-        <v>281.53455760695169</v>
-      </c>
-      <c r="C27">
-        <f t="shared" ref="C27:K27" si="21">C25/3650</f>
-        <v>225.5870282487235</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="21"/>
-        <v>184.87959665731833</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="21"/>
-        <v>208.39747313733844</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="21"/>
-        <v>438.32808949373668</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="21"/>
-        <v>884.12551113703955</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="21"/>
-        <v>508.00523757586205</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="21"/>
-        <v>173.30920131089167</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="21"/>
-        <v>394.38388957662829</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="21"/>
-        <v>60.962595758459543</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="e">
+        <f>2*B23*B25</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C27" t="e">
+        <f>2*C23*C25</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D27" t="e">
+        <f>2*D23*D25</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E27" t="e">
+        <f t="shared" ref="E27:G27" si="10">2*E23*E25</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F27" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G27" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="2">
+        <f>B26/1065</f>
+        <v>13212.95569833947</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" ref="C28:G28" si="11">C26/1065</f>
+        <v>16972.918519248833</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="11"/>
+        <v>5737.9150547740201</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="11"/>
+        <v>69205.218156035917</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="11"/>
+        <v>75935.260475153133</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="11"/>
+        <v>53006.49408619992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D31" t="s">
         <v>4</v>
       </c>
-      <c r="F30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31">
-        <v>-208.14569440899999</v>
-      </c>
-      <c r="C31">
-        <v>-223.54520948499999</v>
-      </c>
-      <c r="D31">
-        <v>-1722.5257657100001</v>
-      </c>
-      <c r="E31">
-        <v>-398.54836697600001</v>
-      </c>
-      <c r="F31">
-        <v>-853.17863990599994</v>
-      </c>
-      <c r="G31">
-        <v>-1823.50716407</v>
-      </c>
-      <c r="H31">
-        <v>-84.428194330099998</v>
-      </c>
-      <c r="I31">
-        <v>-897.40793348399995</v>
-      </c>
-      <c r="J31">
-        <v>-128.15793473299999</v>
-      </c>
-      <c r="K31">
-        <v>-198.74967961499999</v>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B32">
-        <v>2511.2318207100002</v>
+        <v>-142.24748631700001</v>
       </c>
       <c r="C32">
-        <v>2415.2126045999998</v>
+        <v>-181.63540144199999</v>
       </c>
       <c r="D32">
-        <v>2961.03748825</v>
+        <v>-253.21716975499999</v>
       </c>
       <c r="E32">
-        <v>2245.3549645799999</v>
+        <v>-131.835854385</v>
       </c>
       <c r="F32">
-        <v>11537.7927562</v>
+        <v>-174.082255156</v>
       </c>
       <c r="G32">
-        <v>10273.0730759</v>
-      </c>
-      <c r="H32">
-        <v>2933.3223995200001</v>
-      </c>
-      <c r="I32">
-        <v>4404.68147873</v>
-      </c>
-      <c r="J32">
-        <v>3906.0836666099999</v>
-      </c>
-      <c r="K32">
-        <v>339.774556808</v>
+        <v>-230.27434383799999</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="1">
-        <v>7.7813706900000001E-2</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.14899131299999999</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.11182881</v>
-      </c>
-      <c r="E33" s="1">
-        <v>9.2471167500000007E-2</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.13130575</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.18022237399999999</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.105765374</v>
-      </c>
-      <c r="I33" s="1">
-        <v>8.0507657799999993E-2</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.17082598800000001</v>
-      </c>
-      <c r="K33" s="1">
-        <v>7.81905393E-2</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>2364.5714969000001</v>
+      </c>
+      <c r="C33">
+        <v>2302.2924197299999</v>
+      </c>
+      <c r="D33">
+        <v>2054.4914475599999</v>
+      </c>
+      <c r="E33">
+        <v>2325.7760280900002</v>
+      </c>
+      <c r="F33">
+        <v>2274.3873767700002</v>
+      </c>
+      <c r="G33">
+        <v>1998.25465618</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B34" s="1">
-        <v>4.45424563</v>
+        <v>0.13723589899999999</v>
       </c>
       <c r="C34" s="1">
-        <v>0.109132625</v>
+        <v>9.0416234700000001E-2</v>
       </c>
       <c r="D34" s="1">
-        <v>2.7539494000000002</v>
+        <v>0.15555079299999999</v>
       </c>
       <c r="E34" s="1">
-        <v>1.00960582</v>
+        <v>5.1893244900000003E-2</v>
       </c>
       <c r="F34" s="1">
-        <v>4.4490491600000004</v>
+        <v>0.18844562500000001</v>
       </c>
       <c r="G34" s="1">
-        <v>2.8558894000000001</v>
-      </c>
-      <c r="H34" s="1">
-        <v>2.22963596</v>
-      </c>
-      <c r="I34" s="1">
-        <v>4.2094079400000002</v>
-      </c>
-      <c r="J34" s="1">
-        <v>3.3821253599999999</v>
-      </c>
-      <c r="K34" s="1">
-        <v>4.2674296700000003</v>
-      </c>
+        <v>0.114669962</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B35" s="1">
-        <v>5.0035943300000002E-6</v>
+        <v>0.44330371899999998</v>
       </c>
       <c r="C35" s="1">
-        <v>1.64168424E-5</v>
+        <v>0.41963474099999998</v>
       </c>
       <c r="D35" s="1">
-        <v>5.60862901E-6</v>
+        <v>0.40916034499999998</v>
       </c>
       <c r="E35" s="1">
-        <v>1.00728327E-6</v>
+        <v>0.17071551400000001</v>
       </c>
       <c r="F35" s="1">
-        <v>4.7565338200000004E-6</v>
+        <v>0.18595346900000001</v>
       </c>
       <c r="G35" s="1">
-        <v>5.2556039900000004E-6</v>
-      </c>
-      <c r="H35" s="1">
-        <v>7.6721748799999995E-6</v>
-      </c>
-      <c r="I35" s="1">
-        <v>2.7420033699999999E-6</v>
-      </c>
-      <c r="J35" s="1">
-        <v>7.2936733900000004E-6</v>
-      </c>
-      <c r="K35" s="1">
-        <v>1.2122472800000001E-5</v>
-      </c>
+        <v>0.18267592599999999</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" t="s">
-        <v>24</v>
-      </c>
-      <c r="K36" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3.5441166899999999E-6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4.6731419900000003E-6</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3.9759143099999999E-6</v>
+      </c>
+      <c r="E36" s="1">
+        <v>6.2748416099999996E-6</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5.7957372100000004E-6</v>
+      </c>
+      <c r="G36" s="1">
+        <v>6.0290584500000003E-6</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37">
-        <f>B32/4*1000000000</f>
-        <v>627807955177.5</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ref="C37:K37" si="22">C32/4*1000000000</f>
-        <v>603803151150</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="22"/>
-        <v>740259372062.5</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="22"/>
-        <v>561338741145</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="22"/>
-        <v>2884448189050</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="22"/>
-        <v>2568268268975</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="22"/>
-        <v>733330599880</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="22"/>
-        <v>1101170369682.5</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="22"/>
-        <v>976520916652.5</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="22"/>
-        <v>84943639202</v>
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B38">
-        <f>B37/B33</f>
-        <v>8068089546027.0127</v>
+        <f>B33/4/0.0000000005</f>
+        <v>1182285748450</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38" si="23">C37/C33</f>
-        <v>4052606417060.0337</v>
+        <f t="shared" ref="C38:G38" si="12">C33/4/0.0000000005</f>
+        <v>1151146209864.9998</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38" si="24">D37/D33</f>
-        <v>6619576583730.9727</v>
+        <f t="shared" si="12"/>
+        <v>1027245723779.9999</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38" si="25">E37/E33</f>
-        <v>6070419097336.4746</v>
+        <f t="shared" si="12"/>
+        <v>1162888014045</v>
       </c>
       <c r="F38">
-        <f t="shared" ref="F38" si="26">F37/F33</f>
-        <v>21967417185081.383</v>
+        <f t="shared" si="12"/>
+        <v>1137193688385</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38" si="27">G37/G33</f>
-        <v>14250551759877.496</v>
-      </c>
-      <c r="H38">
-        <f t="shared" ref="H38" si="28">H37/H33</f>
-        <v>6933560315117.876</v>
-      </c>
-      <c r="I38">
-        <f t="shared" ref="I38" si="29">I37/I33</f>
-        <v>13677833882809.842</v>
-      </c>
-      <c r="J38">
-        <f t="shared" ref="J38" si="30">J37/J33</f>
-        <v>5716465791214.9756</v>
-      </c>
-      <c r="K38">
-        <f t="shared" ref="K38" si="31">K37/K33</f>
-        <v>1086367225017.9761</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>999127328089.99988</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39">
-        <f>2*B35*B38</f>
-        <v>80738894.212866068</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ref="C39" si="32">2*C35*C38</f>
-        <v>133062001.71620649</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ref="D39" si="33">2*D35*D38</f>
-        <v>74253498.522860453</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ref="E39" si="34">2*E35*E38</f>
-        <v>12229263.197271064</v>
-      </c>
-      <c r="F39">
-        <f t="shared" ref="F39" si="35">2*F35*F38</f>
-        <v>208977525.55777761</v>
-      </c>
-      <c r="G39">
-        <f t="shared" ref="G39" si="36">2*G35*G38</f>
-        <v>149790513.37782741</v>
-      </c>
-      <c r="H39">
-        <f t="shared" ref="H39" si="37">2*H35*H38</f>
-        <v>106390974.5572245</v>
-      </c>
-      <c r="I39">
-        <f t="shared" ref="I39" si="38">2*I35*I38</f>
-        <v>75009333.201929539</v>
-      </c>
-      <c r="J39">
-        <f t="shared" ref="J39" si="39">2*J35*J38</f>
-        <v>83388068.852459937</v>
-      </c>
-      <c r="K39">
-        <f t="shared" ref="K39" si="40">2*K35*K38</f>
-        <v>26338914.272183791</v>
+        <v>8</v>
+      </c>
+      <c r="B39" s="1">
+        <f>B38/B35</f>
+        <v>2666988111710.3823</v>
+      </c>
+      <c r="C39" s="1">
+        <f>C38/C35</f>
+        <v>2743209980951.0288</v>
+      </c>
+      <c r="D39" s="1">
+        <f>D38/D35</f>
+        <v>2510618969636.4634</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" ref="E39:G39" si="13">E38/E35</f>
+        <v>6811847305482.7334</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="13"/>
+        <v>6115474449067.6855</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="13"/>
+        <v>5469397911194.9316</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" t="e">
-        <f>2*B36*B38</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C40" t="e">
-        <f t="shared" ref="C40:K40" si="41">2*C36*C38</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D40" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E40" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F40" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G40" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H40" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I40" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J40" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K40" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <f>2*B36*B39</f>
+        <v>18904234.1574887</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40" si="14">2*C36*C39</f>
+        <v>25638819.498738706</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:G40" si="15">2*D36*D39</f>
+        <v>19964011.776670139</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="15"/>
+        <v>85486525.826818869</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="15"/>
+        <v>70887365.642531678</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="15"/>
+        <v>65950639.38580431</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="2">
-        <f>B39/3650</f>
-        <v>22120.244989826318</v>
-      </c>
-      <c r="C41" s="2">
-        <f t="shared" ref="C41:K41" si="42">C39/3650</f>
-        <v>36455.342935946981</v>
-      </c>
-      <c r="D41" s="2">
-        <f t="shared" si="42"/>
-        <v>20343.424252838478</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="42"/>
-        <v>3350.483067745497</v>
-      </c>
-      <c r="F41" s="2">
-        <f t="shared" si="42"/>
-        <v>57254.116591171951</v>
-      </c>
-      <c r="G41" s="2">
-        <f t="shared" si="42"/>
-        <v>41038.496815843122</v>
-      </c>
-      <c r="H41" s="2">
-        <f t="shared" si="42"/>
-        <v>29148.212207458768</v>
-      </c>
-      <c r="I41" s="2">
-        <f t="shared" si="42"/>
-        <v>20550.502247103985</v>
-      </c>
-      <c r="J41" s="2">
-        <f t="shared" si="42"/>
-        <v>22846.046260947929</v>
-      </c>
-      <c r="K41" s="2">
-        <f t="shared" si="42"/>
-        <v>7216.1408964887096</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="e">
+        <f>2*B37*B39</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C41" t="e">
+        <f>2*C37*C39</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D41" t="e">
+        <f>2*D37*D39</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E41" t="e">
+        <f t="shared" ref="E41:G41" si="16">2*E37*E39</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F41" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G41" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="2">
+        <f>B40/1065</f>
+        <v>17750.454607970609</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" ref="C42:G42" si="17">C40/1065</f>
+        <v>24074.008919003481</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="17"/>
+        <v>18745.550964009519</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="17"/>
+        <v>80269.038335041187</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="17"/>
+        <v>66560.906706602516</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="17"/>
+        <v>61925.482991365549</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>1</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>2</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>3</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
         <v>4</v>
-      </c>
-      <c r="F44" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" t="s">
-        <v>22</v>
-      </c>
-      <c r="J44" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45">
-        <v>-208.080701909</v>
-      </c>
-      <c r="C45">
-        <v>-223.52943450399999</v>
-      </c>
-      <c r="D45">
-        <v>-1722.4327783399999</v>
-      </c>
-      <c r="E45">
-        <v>-398.36044286399999</v>
-      </c>
-      <c r="F45">
-        <v>-853.24571596299995</v>
-      </c>
-      <c r="G45">
-        <v>-1823.4028529699999</v>
-      </c>
-      <c r="H45">
-        <v>-84.430912171000003</v>
-      </c>
-      <c r="I45">
-        <v>-897.26641094299998</v>
-      </c>
-      <c r="J45">
-        <v>-128.156369625</v>
-      </c>
-      <c r="K45">
-        <v>-198.756543857</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B46">
-        <v>2511.1568320299998</v>
+        <v>-142.24751826599999</v>
       </c>
       <c r="C46">
-        <v>2415.1893283899999</v>
+        <v>-181.635435384</v>
       </c>
       <c r="D46">
-        <v>2960.9828271800002</v>
+        <v>-253.217362503</v>
       </c>
       <c r="E46">
-        <v>2245.2358191799999</v>
+        <v>-131.83585666499999</v>
       </c>
       <c r="F46">
-        <v>11537.872127000001</v>
+        <v>-174.082256325</v>
       </c>
       <c r="G46">
-        <v>10272.997992799999</v>
-      </c>
-      <c r="H46">
-        <v>2933.36067766</v>
-      </c>
-      <c r="I46">
-        <v>9425.8874565000006</v>
-      </c>
-      <c r="J46">
-        <v>3906.0784523699999</v>
-      </c>
-      <c r="K46">
-        <v>339.77832698100002</v>
+        <v>-230.274347992</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="1">
-        <v>1.3676202799999999</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0.87266450500000003</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2.7153914100000001</v>
-      </c>
-      <c r="E47" s="1">
-        <v>2.87729116</v>
-      </c>
-      <c r="F47" s="1">
-        <v>2.2852013800000002</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1.3297028</v>
-      </c>
-      <c r="H47" s="1">
-        <v>1.0746156099999999</v>
-      </c>
-      <c r="I47" s="1">
-        <v>1.54383833</v>
-      </c>
-      <c r="J47" s="1">
-        <v>1.65557183</v>
-      </c>
-      <c r="K47" s="1">
-        <v>1.1647666699999999</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <v>2364.57159963</v>
+      </c>
+      <c r="C47">
+        <v>2302.29257181</v>
+      </c>
+      <c r="D47">
+        <v>2054.49172791</v>
+      </c>
+      <c r="E47">
+        <v>2325.7760365300001</v>
+      </c>
+      <c r="F47">
+        <v>2274.38737907</v>
+      </c>
+      <c r="G47">
+        <v>1998.2546738000001</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B48" s="1">
-        <v>3.4164464200000002</v>
+        <v>0.38778910900000002</v>
       </c>
       <c r="C48" s="1">
-        <v>2.9543091399999999</v>
+        <v>0.21386635500000001</v>
       </c>
       <c r="D48" s="1">
-        <v>3.2558582</v>
+        <v>0.21718088699999999</v>
       </c>
       <c r="E48" s="1">
-        <v>0.95586949799999998</v>
+        <v>0.181639251</v>
       </c>
       <c r="F48" s="1">
-        <v>1.3789911399999999</v>
+        <v>0.16361435399999999</v>
       </c>
       <c r="G48" s="1">
-        <v>3.1504380699999999</v>
-      </c>
-      <c r="H48" s="1">
-        <v>1.10774051</v>
-      </c>
-      <c r="I48" s="1">
-        <v>2.0933972600000001</v>
-      </c>
-      <c r="J48" s="1">
-        <v>1.87413557</v>
-      </c>
-      <c r="K48" s="1">
-        <v>1.3551059999999999</v>
-      </c>
+        <v>0.14650534700000001</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B49" s="1">
-        <v>2.7460762100000002E-6</v>
+        <v>0.29068597299999999</v>
       </c>
       <c r="C49" s="1">
-        <v>1.61170089E-6</v>
+        <v>0.16026812500000001</v>
       </c>
       <c r="D49" s="1">
-        <v>5.21114711E-6</v>
+        <v>0.23700531</v>
       </c>
       <c r="E49" s="1">
-        <v>1.05506926E-5</v>
+        <v>0.15705419800000001</v>
       </c>
       <c r="F49" s="1">
-        <v>4.0198801999999996E-6</v>
+        <v>0.137682362</v>
       </c>
       <c r="G49" s="1">
-        <v>2.26380537E-6</v>
-      </c>
-      <c r="H49" s="1">
-        <v>5.3439341699999998E-6</v>
-      </c>
-      <c r="I49" s="1">
-        <v>3.1889152700000002E-6</v>
-      </c>
-      <c r="J49" s="1">
-        <v>6.2851956700000002E-6</v>
-      </c>
-      <c r="K49" s="1">
-        <v>4.4042300100000003E-6</v>
-      </c>
+        <v>0.149928597</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B50" s="1">
-        <v>1.19722591E-5</v>
+        <v>4.1412314200000003E-6</v>
       </c>
       <c r="C50" s="1">
-        <v>9.99437888E-6</v>
+        <v>2.73551889E-6</v>
       </c>
       <c r="D50" s="1">
-        <v>6.7964977600000004E-6</v>
+        <v>3.0317030200000001E-6</v>
       </c>
       <c r="E50" s="1">
-        <v>1.9095439700000001E-6</v>
+        <v>9.8743227099999992E-6</v>
       </c>
       <c r="F50" s="1">
-        <v>1.7391346599999999E-6</v>
+        <v>5.2868588499999997E-6</v>
       </c>
       <c r="G50" s="1">
-        <v>8.84391526E-6</v>
-      </c>
-      <c r="H50" s="1">
-        <v>6.0547779300000002E-6</v>
-      </c>
-      <c r="I50" s="1">
-        <v>6.1381208800000001E-6</v>
-      </c>
-      <c r="J50" s="1">
-        <v>7.7485840900000003E-6</v>
-      </c>
-      <c r="K50" s="1">
-        <v>7.1347322600000002E-6</v>
-      </c>
+        <v>7.6329306600000001E-6</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51">
-        <f>B46/4*1000000000</f>
-        <v>627789208007.5</v>
-      </c>
-      <c r="C51">
-        <f t="shared" ref="C51:K51" si="43">C46/4*1000000000</f>
-        <v>603797332097.5</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="43"/>
-        <v>740245706795</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="43"/>
-        <v>561308954795</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="43"/>
-        <v>2884468031750</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="43"/>
-        <v>2568249498200</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="43"/>
-        <v>733340169415</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="43"/>
-        <v>2356471864125</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="43"/>
-        <v>976519613092.5</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="43"/>
-        <v>84944581745.25</v>
+        <v>13</v>
+      </c>
+      <c r="B51" s="1">
+        <v>4.0649364399999999E-6</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2.5631338199999999E-6</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3.2648936900000001E-6</v>
+      </c>
+      <c r="E51" s="1">
+        <v>7.6385757799999998E-6</v>
+      </c>
+      <c r="F51" s="1">
+        <v>5.32469006E-6</v>
+      </c>
+      <c r="G51" s="1">
+        <v>5.9974662599999998E-6</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <f>B51/B47</f>
-        <v>459037656276.56531</v>
+        <f>B47/4/0.0000000005</f>
+        <v>1182285799815</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52" si="44">C51/C47</f>
-        <v>691900872142.72571</v>
+        <f t="shared" ref="C52:G52" si="18">C47/4/0.0000000005</f>
+        <v>1151146285905</v>
       </c>
       <c r="D52">
-        <f t="shared" ref="D52" si="45">D51/D47</f>
-        <v>272611051235.1514</v>
+        <f t="shared" si="18"/>
+        <v>1027245863955</v>
       </c>
       <c r="E52">
-        <f t="shared" ref="E52" si="46">E51/E47</f>
-        <v>195082431211.09787</v>
+        <f t="shared" si="18"/>
+        <v>1162888018265</v>
       </c>
       <c r="F52">
-        <f t="shared" ref="F52" si="47">F51/F47</f>
-        <v>1262238005365.6365</v>
+        <f t="shared" si="18"/>
+        <v>1137193689535</v>
       </c>
       <c r="G52">
-        <f t="shared" ref="G52" si="48">G51/G47</f>
-        <v>1931446258667.7263</v>
-      </c>
-      <c r="H52">
-        <f t="shared" ref="H52" si="49">H51/H47</f>
-        <v>682420916456.81567</v>
-      </c>
-      <c r="I52">
-        <f t="shared" ref="I52" si="50">I51/I47</f>
-        <v>1526372171446.8638</v>
-      </c>
-      <c r="J52">
-        <f t="shared" ref="J52" si="51">J51/J47</f>
-        <v>589838263370.6084</v>
-      </c>
-      <c r="K52">
-        <f t="shared" ref="K52" si="52">K51/K47</f>
-        <v>72928410413.091583</v>
-      </c>
+        <f t="shared" si="18"/>
+        <v>999127336900</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53">
-        <f>2*B49*B52</f>
-        <v>2521104.7747904663</v>
-      </c>
-      <c r="C53">
-        <f t="shared" ref="C53" si="53">2*C49*C52</f>
-        <v>2230274.5028484147</v>
-      </c>
-      <c r="D53">
-        <f t="shared" ref="D53" si="54">2*D49*D52</f>
-        <v>2841232.5835962421</v>
-      </c>
-      <c r="E53">
-        <f t="shared" ref="E53" si="55">2*E49*E52</f>
-        <v>4116509.5267378786</v>
-      </c>
-      <c r="F53">
-        <f t="shared" ref="F53" si="56">2*F49*F52</f>
-        <v>10148091.13091363</v>
-      </c>
-      <c r="G53">
-        <f t="shared" ref="G53" si="57">2*G49*G52</f>
-        <v>8744836.8244768158</v>
-      </c>
-      <c r="H53">
-        <f t="shared" ref="H53" si="58">2*H49*H52</f>
-        <v>7293624.907552585</v>
-      </c>
-      <c r="I53">
-        <f t="shared" ref="I53" si="59">2*I49*I52</f>
-        <v>9734943.0504599251</v>
-      </c>
-      <c r="J53">
-        <f t="shared" ref="J53" si="60">2*J49*J52</f>
-        <v>7414497.7978745354</v>
-      </c>
-      <c r="K53">
-        <f t="shared" ref="K53" si="61">2*K49*K52</f>
-        <v>642386.9874458689</v>
+        <v>8</v>
+      </c>
+      <c r="B53" s="1">
+        <f>B52/B49</f>
+        <v>4067226868958.689</v>
+      </c>
+      <c r="C53" s="1">
+        <f>C52/C49</f>
+        <v>7182627773956.9229</v>
+      </c>
+      <c r="D53" s="1">
+        <f>D52/D49</f>
+        <v>4334273624312.4678</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" ref="E53:F53" si="19">E52/E49</f>
+        <v>7404373987284.3125</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="19"/>
+        <v>8259545180776.3145</v>
+      </c>
+      <c r="G53" s="1">
+        <f>G52/G49</f>
+        <v>6664021120000.209</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B54">
-        <f>2*B50*B52</f>
-        <v>10991435.515199563</v>
+        <f>2*B50*B53</f>
+        <v>33686655.403999895</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:K54" si="62">2*C50*C52</f>
-        <v>13830238.927193677</v>
+        <f t="shared" ref="C54" si="20">2*C50*C53</f>
+        <v>39296427.910995625</v>
       </c>
       <c r="D54">
-        <f t="shared" si="62"/>
-        <v>3705600.7981419037</v>
+        <f t="shared" ref="D54:F54" si="21">2*D50*D53</f>
+        <v>26280460.872668907</v>
       </c>
       <c r="E54">
-        <f t="shared" si="62"/>
-        <v>745036.96034418349</v>
+        <f t="shared" si="21"/>
+        <v>146226356.43194947</v>
       </c>
       <c r="F54">
-        <f t="shared" si="62"/>
-        <v>4390403.728601289</v>
+        <f t="shared" si="21"/>
+        <v>87334099.07192421</v>
       </c>
       <c r="G54">
-        <f t="shared" si="62"/>
-        <v>34163094.081802823</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="62"/>
-        <v>8263814.207866203</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="62"/>
-        <v>18738113.792417869</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="62"/>
-        <v>9140822.7664534524</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="62"/>
-        <v>1040649.3648896089</v>
+        <f t="shared" ref="G54" si="22">2*G50*G53</f>
+        <v>101732022.25147428</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B55">
-        <f>B53/3650</f>
-        <v>690.71363692889486</v>
+        <f>2*B51*B53</f>
+        <v>33066037.418754559</v>
       </c>
       <c r="C55">
-        <f t="shared" ref="C55:K55" si="63">C53/3650</f>
-        <v>611.03411036942873</v>
+        <f>2*C51*C53</f>
+        <v>36820072.327800609</v>
       </c>
       <c r="D55">
-        <f t="shared" si="63"/>
-        <v>778.41988591677864</v>
+        <f>2*D51*D53</f>
+        <v>28301885.213502415</v>
       </c>
       <c r="E55">
-        <f t="shared" si="63"/>
-        <v>1127.8108292432544</v>
+        <f t="shared" ref="E55:F55" si="23">2*E51*E53</f>
+        <v>113117743.61066395</v>
       </c>
       <c r="F55">
-        <f t="shared" si="63"/>
-        <v>2780.2989399763369</v>
+        <f t="shared" si="23"/>
+        <v>87959036.248401091</v>
       </c>
       <c r="G55">
-        <f t="shared" si="63"/>
-        <v>2395.845705336114</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="63"/>
-        <v>1998.2533993294753</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="63"/>
-        <v>2667.1076850575137</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="63"/>
-        <v>2031.3692596916535</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="63"/>
-        <v>175.99643491667641</v>
+        <f>2*G51*G53</f>
+        <v>79934483.646257326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56">
+        <f>B55/1065</f>
+        <v>31047.92245892447</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ref="C56:G56" si="24">C55/1065</f>
+        <v>34572.837866479444</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="24"/>
+        <v>26574.540106575037</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="24"/>
+        <v>106213.84376588164</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="24"/>
+        <v>82590.644364695865</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="24"/>
+        <v>75055.853188974012</v>
       </c>
     </row>
   </sheetData>

--- a/Summary/output_summary.xlsx
+++ b/Summary/output_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Desktop\GitHub\demo_for_ccgb\Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF2187F-79F0-47FF-9FEC-0C56949D24EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32593958-8D1E-4FB6-A5B1-9F3126A88FC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6600" yWindow="1068" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{9F4B9699-7361-44C9-88F2-01D9ADA6A85E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{9F4B9699-7361-44C9-88F2-01D9ADA6A85E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="26">
   <si>
     <t>theta</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>no singletons or doubletons</t>
+  </si>
+  <si>
+    <t>N_b</t>
   </si>
 </sst>
 </file>
@@ -1283,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A941B0-2F65-4D9C-86F5-1774512E76E7}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="B39" sqref="B39:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2149,89 +2152,89 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="1">
+        <f>B38/B34</f>
+        <v>8614988913724.3896</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" ref="C39:G39" si="13">C38/C34</f>
+        <v>12731631810199.676</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="13"/>
+        <v>6603924698603.1113</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="13"/>
+        <v>22409236814655.234</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="13"/>
+        <v>6034598512886.6748</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="13"/>
+        <v>8713069322286.8594</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B40" s="1">
         <f>B38/B35</f>
         <v>2666988111710.3823</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C40" s="1">
         <f>C38/C35</f>
         <v>2743209980951.0288</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D40" s="1">
         <f>D38/D35</f>
         <v>2510618969636.4634</v>
       </c>
-      <c r="E39" s="1">
-        <f t="shared" ref="E39:G39" si="13">E38/E35</f>
+      <c r="E40" s="1">
+        <f>E38/E35</f>
         <v>6811847305482.7334</v>
       </c>
-      <c r="F39" s="1">
-        <f t="shared" si="13"/>
+      <c r="F40" s="1">
+        <f>F38/F35</f>
         <v>6115474449067.6855</v>
       </c>
-      <c r="G39" s="1">
-        <f t="shared" si="13"/>
+      <c r="G40" s="1">
+        <f>G38/G35</f>
         <v>5469397911194.9316</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40">
-        <f>2*B36*B39</f>
-        <v>18904234.1574887</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ref="C40" si="14">2*C36*C39</f>
-        <v>25638819.498738706</v>
-      </c>
-      <c r="D40">
-        <f t="shared" ref="D40:G40" si="15">2*D36*D39</f>
-        <v>19964011.776670139</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="15"/>
-        <v>85486525.826818869</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="15"/>
-        <v>70887365.642531678</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="15"/>
-        <v>65950639.38580431</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" t="e">
-        <f>2*B37*B39</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C41" t="e">
-        <f>2*C37*C39</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D41" t="e">
-        <f>2*D37*D39</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E41" t="e">
-        <f t="shared" ref="E41:G41" si="16">2*E37*E39</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F41" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G41" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <f>2*B36*B40</f>
+        <v>18904234.1574887</v>
+      </c>
+      <c r="C41">
+        <f>2*C36*C40</f>
+        <v>25638819.498738706</v>
+      </c>
+      <c r="D41">
+        <f>2*D36*D40</f>
+        <v>19964011.776670139</v>
+      </c>
+      <c r="E41">
+        <f>2*E36*E40</f>
+        <v>85486525.826818869</v>
+      </c>
+      <c r="F41">
+        <f>2*F36*F40</f>
+        <v>70887365.642531678</v>
+      </c>
+      <c r="G41">
+        <f>2*G36*G40</f>
+        <v>65950639.38580431</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -2240,102 +2243,108 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="e">
+        <f>2*B37*B40</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C42" t="e">
+        <f>2*C37*C40</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D42" t="e">
+        <f>2*D37*D40</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E42" t="e">
+        <f>2*E37*E40</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F42" t="e">
+        <f>2*F37*F40</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G42" t="e">
+        <f>2*G37*G40</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="2">
-        <f>B40/1065</f>
+      <c r="B43" s="2">
+        <f>B41/1065</f>
         <v>17750.454607970609</v>
       </c>
-      <c r="C42" s="2">
-        <f t="shared" ref="C42:G42" si="17">C40/1065</f>
+      <c r="C43" s="2">
+        <f t="shared" ref="C43:G43" si="14">C41/1065</f>
         <v>24074.008919003481</v>
       </c>
-      <c r="D42" s="2">
-        <f t="shared" si="17"/>
+      <c r="D43" s="2">
+        <f t="shared" si="14"/>
         <v>18745.550964009519</v>
       </c>
-      <c r="E42" s="3">
-        <f t="shared" si="17"/>
+      <c r="E43" s="3">
+        <f t="shared" si="14"/>
         <v>80269.038335041187</v>
       </c>
-      <c r="F42" s="3">
-        <f t="shared" si="17"/>
+      <c r="F43" s="3">
+        <f t="shared" si="14"/>
         <v>66560.906706602516</v>
       </c>
-      <c r="G42" s="3">
-        <f t="shared" si="17"/>
+      <c r="G43" s="3">
+        <f t="shared" si="14"/>
         <v>61925.482991365549</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>2</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>3</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>1</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" t="s">
         <v>2</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G46" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46">
-        <v>-142.24751826599999</v>
-      </c>
-      <c r="C46">
-        <v>-181.635435384</v>
-      </c>
-      <c r="D46">
-        <v>-253.217362503</v>
-      </c>
-      <c r="E46">
-        <v>-131.83585666499999</v>
-      </c>
-      <c r="F46">
-        <v>-174.082256325</v>
-      </c>
-      <c r="G46">
-        <v>-230.274347992</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B47">
-        <v>2364.57159963</v>
+        <v>-142.24751826599999</v>
       </c>
       <c r="C47">
-        <v>2302.29257181</v>
+        <v>-181.635435384</v>
       </c>
       <c r="D47">
-        <v>2054.49172791</v>
+        <v>-253.217362503</v>
       </c>
       <c r="E47">
-        <v>2325.7760365300001</v>
+        <v>-131.83585666499999</v>
       </c>
       <c r="F47">
-        <v>2274.38737907</v>
+        <v>-174.082256325</v>
       </c>
       <c r="G47">
-        <v>1998.2546738000001</v>
+        <v>-230.274347992</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -2344,25 +2353,25 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="1">
-        <v>0.38778910900000002</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0.21386635500000001</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0.21718088699999999</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0.181639251</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0.16361435399999999</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0.14650534700000001</v>
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>2364.57159963</v>
+      </c>
+      <c r="C48">
+        <v>2302.29257181</v>
+      </c>
+      <c r="D48">
+        <v>2054.49172791</v>
+      </c>
+      <c r="E48">
+        <v>2325.7760365300001</v>
+      </c>
+      <c r="F48">
+        <v>2274.38737907</v>
+      </c>
+      <c r="G48">
+        <v>1998.2546738000001</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -2371,25 +2380,25 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B49" s="1">
-        <v>0.29068597299999999</v>
+        <v>0.38778910900000002</v>
       </c>
       <c r="C49" s="1">
-        <v>0.16026812500000001</v>
+        <v>0.21386635500000001</v>
       </c>
       <c r="D49" s="1">
-        <v>0.23700531</v>
+        <v>0.21718088699999999</v>
       </c>
       <c r="E49" s="1">
-        <v>0.15705419800000001</v>
+        <v>0.181639251</v>
       </c>
       <c r="F49" s="1">
-        <v>0.137682362</v>
+        <v>0.16361435399999999</v>
       </c>
       <c r="G49" s="1">
-        <v>0.149928597</v>
+        <v>0.14650534700000001</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -2398,25 +2407,25 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B50" s="1">
-        <v>4.1412314200000003E-6</v>
+        <v>0.29068597299999999</v>
       </c>
       <c r="C50" s="1">
-        <v>2.73551889E-6</v>
+        <v>0.16026812500000001</v>
       </c>
       <c r="D50" s="1">
-        <v>3.0317030200000001E-6</v>
+        <v>0.23700531</v>
       </c>
       <c r="E50" s="1">
-        <v>9.8743227099999992E-6</v>
+        <v>0.15705419800000001</v>
       </c>
       <c r="F50" s="1">
-        <v>5.2868588499999997E-6</v>
+        <v>0.137682362</v>
       </c>
       <c r="G50" s="1">
-        <v>7.6329306600000001E-6</v>
+        <v>0.149928597</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -2425,54 +2434,48 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B51" s="1">
-        <v>4.0649364399999999E-6</v>
+        <v>4.1412314200000003E-6</v>
       </c>
       <c r="C51" s="1">
-        <v>2.5631338199999999E-6</v>
+        <v>2.73551889E-6</v>
       </c>
       <c r="D51" s="1">
-        <v>3.2648936900000001E-6</v>
+        <v>3.0317030200000001E-6</v>
       </c>
       <c r="E51" s="1">
-        <v>7.6385757799999998E-6</v>
+        <v>9.8743227099999992E-6</v>
       </c>
       <c r="F51" s="1">
-        <v>5.32469006E-6</v>
+        <v>5.2868588499999997E-6</v>
       </c>
       <c r="G51" s="1">
-        <v>5.9974662599999998E-6</v>
+        <v>7.6329306600000001E-6</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52">
-        <f>B47/4/0.0000000005</f>
-        <v>1182285799815</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ref="C52:G52" si="18">C47/4/0.0000000005</f>
-        <v>1151146285905</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="18"/>
-        <v>1027245863955</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="18"/>
-        <v>1162888018265</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="18"/>
-        <v>1137193689535</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="18"/>
-        <v>999127336900</v>
+        <v>13</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4.0649364399999999E-6</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2.5631338199999999E-6</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3.2648936900000001E-6</v>
+      </c>
+      <c r="E52" s="1">
+        <v>7.6385757799999998E-6</v>
+      </c>
+      <c r="F52" s="1">
+        <v>5.32469006E-6</v>
+      </c>
+      <c r="G52" s="1">
+        <v>5.9974662599999998E-6</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -2481,117 +2484,204 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="1">
-        <f>B52/B49</f>
-        <v>4067226868958.689</v>
-      </c>
-      <c r="C53" s="1">
-        <f>C52/C49</f>
-        <v>7182627773956.9229</v>
-      </c>
-      <c r="D53" s="1">
-        <f>D52/D49</f>
-        <v>4334273624312.4678</v>
-      </c>
-      <c r="E53" s="1">
-        <f t="shared" ref="E53:F53" si="19">E52/E49</f>
-        <v>7404373987284.3125</v>
-      </c>
-      <c r="F53" s="1">
-        <f t="shared" si="19"/>
-        <v>8259545180776.3145</v>
-      </c>
-      <c r="G53" s="1">
-        <f>G52/G49</f>
-        <v>6664021120000.209</v>
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <f>B48/4/0.0000000005</f>
+        <v>1182285799815</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:G53" si="15">C48/4/0.0000000005</f>
+        <v>1151146285905</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="15"/>
+        <v>1027245863955</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="15"/>
+        <v>1162888018265</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="15"/>
+        <v>1137193689535</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="15"/>
+        <v>999127336900</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54">
-        <f>2*B50*B53</f>
-        <v>33686655.403999895</v>
-      </c>
-      <c r="C54">
-        <f t="shared" ref="C54" si="20">2*C50*C53</f>
-        <v>39296427.910995625</v>
-      </c>
-      <c r="D54">
-        <f t="shared" ref="D54:F54" si="21">2*D50*D53</f>
-        <v>26280460.872668907</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="21"/>
-        <v>146226356.43194947</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="21"/>
-        <v>87334099.07192421</v>
-      </c>
-      <c r="G54">
-        <f t="shared" ref="G54" si="22">2*G50*G53</f>
-        <v>101732022.25147428</v>
+        <v>25</v>
+      </c>
+      <c r="B54" s="1">
+        <f>B53/B49</f>
+        <v>3048785467090.0518</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" ref="C54:G54" si="16">C53/C49</f>
+        <v>5382549704487.1787</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="16"/>
+        <v>4729909146908.4941</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="16"/>
+        <v>6402184615179.8984</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="16"/>
+        <v>6950451850544.8496</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="16"/>
+        <v>6819732913229.4395</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55">
-        <f>2*B51*B53</f>
-        <v>33066037.418754559</v>
-      </c>
-      <c r="C55">
-        <f>2*C51*C53</f>
-        <v>36820072.327800609</v>
-      </c>
-      <c r="D55">
-        <f>2*D51*D53</f>
-        <v>28301885.213502415</v>
-      </c>
-      <c r="E55">
-        <f t="shared" ref="E55:F55" si="23">2*E51*E53</f>
-        <v>113117743.61066395</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="23"/>
-        <v>87959036.248401091</v>
-      </c>
-      <c r="G55">
-        <f>2*G51*G53</f>
-        <v>79934483.646257326</v>
+        <v>8</v>
+      </c>
+      <c r="B55" s="1">
+        <f>B53/B50</f>
+        <v>4067226868958.689</v>
+      </c>
+      <c r="C55" s="1">
+        <f>C53/C50</f>
+        <v>7182627773956.9229</v>
+      </c>
+      <c r="D55" s="1">
+        <f>D53/D50</f>
+        <v>4334273624312.4678</v>
+      </c>
+      <c r="E55" s="1">
+        <f>E53/E50</f>
+        <v>7404373987284.3125</v>
+      </c>
+      <c r="F55" s="1">
+        <f>F53/F50</f>
+        <v>8259545180776.3145</v>
+      </c>
+      <c r="G55" s="1">
+        <f>G53/G50</f>
+        <v>6664021120000.209</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56">
+        <f>2*B51*B55</f>
+        <v>33686655.403999895</v>
+      </c>
+      <c r="C56">
+        <f>2*C51*C55</f>
+        <v>39296427.910995625</v>
+      </c>
+      <c r="D56">
+        <f>2*D51*D55</f>
+        <v>26280460.872668907</v>
+      </c>
+      <c r="E56">
+        <f>2*E51*E55</f>
+        <v>146226356.43194947</v>
+      </c>
+      <c r="F56">
+        <f>2*F51*F55</f>
+        <v>87334099.07192421</v>
+      </c>
+      <c r="G56">
+        <f>2*G51*G55</f>
+        <v>101732022.25147428</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57">
+        <f>2*B52*B55</f>
+        <v>33066037.418754559</v>
+      </c>
+      <c r="C57">
+        <f>2*C52*C55</f>
+        <v>36820072.327800609</v>
+      </c>
+      <c r="D57">
+        <f>2*D52*D55</f>
+        <v>28301885.213502415</v>
+      </c>
+      <c r="E57">
+        <f>2*E52*E55</f>
+        <v>113117743.61066395</v>
+      </c>
+      <c r="F57">
+        <f>2*F52*F55</f>
+        <v>87959036.248401091</v>
+      </c>
+      <c r="G57">
+        <f>2*G52*G55</f>
+        <v>79934483.646257326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>21</v>
       </c>
-      <c r="B56">
-        <f>B55/1065</f>
+      <c r="B58">
+        <f>B56/1065</f>
+        <v>31630.662351173611</v>
+      </c>
+      <c r="C58">
+        <f>C56/1065</f>
+        <v>36898.054376521715</v>
+      </c>
+      <c r="D58">
+        <f>D56/1065</f>
+        <v>24676.489082318221</v>
+      </c>
+      <c r="E58">
+        <f>E56/1065</f>
+        <v>137301.74312859104</v>
+      </c>
+      <c r="F58">
+        <f>F56/1065</f>
+        <v>82003.848893825547</v>
+      </c>
+      <c r="G58">
+        <f>G56/1065</f>
+        <v>95523.025588238757</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59">
+        <f>B57/1065</f>
         <v>31047.92245892447</v>
       </c>
-      <c r="C56">
-        <f t="shared" ref="C56:G56" si="24">C55/1065</f>
+      <c r="C59">
+        <f>C57/1065</f>
         <v>34572.837866479444</v>
       </c>
-      <c r="D56">
-        <f t="shared" si="24"/>
+      <c r="D59">
+        <f>D57/1065</f>
         <v>26574.540106575037</v>
       </c>
-      <c r="E56">
-        <f t="shared" si="24"/>
+      <c r="E59">
+        <f>E57/1065</f>
         <v>106213.84376588164</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="24"/>
+      <c r="F59">
+        <f>F57/1065</f>
         <v>82590.644364695865</v>
       </c>
-      <c r="G56">
-        <f t="shared" si="24"/>
+      <c r="G59">
+        <f>G57/1065</f>
         <v>75055.853188974012</v>
       </c>
     </row>
